--- a/www/examples/fei5.xlsx
+++ b/www/examples/fei5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="915" windowWidth="20730" windowHeight="11760"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="270">
   <si>
     <t>"Утверждаю"</t>
   </si>
@@ -226,9 +226,6 @@
     <t>А-31             лек</t>
   </si>
   <si>
-    <t xml:space="preserve">Капля </t>
-  </si>
-  <si>
     <t>А-12     лек</t>
   </si>
   <si>
@@ -403,18 +400,12 @@
     <t>ч</t>
   </si>
   <si>
-    <t>Корпоротивное финансы</t>
-  </si>
-  <si>
     <t>В-201      лек</t>
   </si>
   <si>
     <t>Корпоративное управление</t>
   </si>
   <si>
-    <t>Корпоротивные финансы</t>
-  </si>
-  <si>
     <t>Б-306      лаб</t>
   </si>
   <si>
@@ -493,18 +484,12 @@
     <t>Саньков</t>
   </si>
   <si>
-    <t>А12               лек.</t>
-  </si>
-  <si>
     <t>ц</t>
   </si>
   <si>
     <t>Б-309     пр.</t>
   </si>
   <si>
-    <t>А12               пр.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Гос.рег.и таможенное дело</t>
   </si>
   <si>
@@ -577,15 +562,9 @@
     <t>Б-104               пр.</t>
   </si>
   <si>
-    <t>Новопольцев</t>
-  </si>
-  <si>
     <t>Б-008      лаб</t>
   </si>
   <si>
-    <t>Интерфейсы и АСОиУ</t>
-  </si>
-  <si>
     <t>А-32       лек.</t>
   </si>
   <si>
@@ -826,17 +805,38 @@
     <t>leftdown</t>
   </si>
   <si>
-    <t>Тут какая-то херня!</t>
+    <t>Капля В.И.</t>
+  </si>
+  <si>
+    <t>Корпоративные финансы</t>
+  </si>
+  <si>
+    <t>А-12               лек.</t>
+  </si>
+  <si>
+    <t>А-12               пр.</t>
+  </si>
+  <si>
+    <t>Расчёт и констр.изд.и форм</t>
+  </si>
+  <si>
+    <t>Орг.,норм.и опл.тр.</t>
+  </si>
+  <si>
+    <t>Новопольцева</t>
+  </si>
+  <si>
+    <t>Капля</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -3048,124 +3048,233 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3174,14 +3283,11 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3189,138 +3295,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3329,13 +3329,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3373,7 +3378,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3407,6 +3412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3441,9 +3447,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3616,18 +3623,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="13"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M15" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="B114" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="438" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="12" customWidth="1"/>
@@ -3651,13 +3658,13 @@
     <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="445" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B1" s="444"/>
       <c r="C1" s="441" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3667,11 +3674,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="444"/>
       <c r="B2" s="444"/>
       <c r="C2" s="441" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3681,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="440"/>
       <c r="B3" s="441"/>
       <c r="C3" s="2"/>
@@ -3693,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3705,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3713,7 +3720,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="30" customHeight="1">
+    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3733,7 +3740,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1">
+    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3754,7 +3761,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1">
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3777,7 @@
       <c r="P8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="25" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:22" s="25" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
@@ -3864,7 +3871,7 @@
       </c>
       <c r="V10" s="24"/>
     </row>
-    <row r="11" spans="1:22" s="34" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:22" s="34" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -3888,7 +3895,7 @@
       <c r="U11" s="29"/>
       <c r="V11" s="33"/>
     </row>
-    <row r="12" spans="1:22" s="48" customFormat="1" ht="10.5" customHeight="1" thickTop="1">
+    <row r="12" spans="1:22" s="48" customFormat="1" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>23</v>
       </c>
@@ -3896,11 +3903,11 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="468" t="s">
+      <c r="F12" s="503" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="474"/>
-      <c r="H12" s="475"/>
+      <c r="G12" s="511"/>
+      <c r="H12" s="463"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
       <c r="K12" s="41"/>
@@ -3918,7 +3925,7 @@
       </c>
       <c r="V12" s="47"/>
     </row>
-    <row r="13" spans="1:22" s="59" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+    <row r="13" spans="1:22" s="59" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>26</v>
       </c>
@@ -3934,7 +3941,7 @@
       <c r="E13" s="50">
         <v>9</v>
       </c>
-      <c r="F13" s="448"/>
+      <c r="F13" s="501"/>
       <c r="G13" s="51"/>
       <c r="H13" s="52"/>
       <c r="I13" s="55"/>
@@ -3952,7 +3959,7 @@
       <c r="U13" s="57"/>
       <c r="V13" s="58"/>
     </row>
-    <row r="14" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    <row r="14" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
         <v>27</v>
       </c>
@@ -3960,15 +3967,15 @@
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="447" t="s">
+      <c r="F14" s="500" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="449"/>
-      <c r="H14" s="476"/>
-      <c r="I14" s="461" t="s">
+      <c r="G14" s="485"/>
+      <c r="H14" s="449"/>
+      <c r="I14" s="447" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="450"/>
+      <c r="J14" s="448"/>
       <c r="K14" s="62"/>
       <c r="L14" s="63"/>
       <c r="M14" s="324"/>
@@ -3982,7 +3989,7 @@
       <c r="U14" s="46"/>
       <c r="V14" s="47"/>
     </row>
-    <row r="15" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="15" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>30</v>
       </c>
@@ -3998,7 +4005,7 @@
       <c r="E15" s="50">
         <v>23</v>
       </c>
-      <c r="F15" s="448"/>
+      <c r="F15" s="501"/>
       <c r="G15" s="68"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70" t="s">
@@ -4020,7 +4027,7 @@
       <c r="U15" s="57"/>
       <c r="V15" s="58"/>
     </row>
-    <row r="16" spans="1:22" ht="10.7" customHeight="1">
+    <row r="16" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>33</v>
       </c>
@@ -4028,31 +4035,31 @@
       <c r="C16" s="37"/>
       <c r="D16" s="77"/>
       <c r="E16" s="77"/>
-      <c r="F16" s="447" t="s">
+      <c r="F16" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="449"/>
-      <c r="H16" s="450"/>
-      <c r="I16" s="461" t="s">
+      <c r="G16" s="485"/>
+      <c r="H16" s="448"/>
+      <c r="I16" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="450"/>
+      <c r="J16" s="448"/>
       <c r="K16" s="62"/>
       <c r="L16" s="63"/>
       <c r="M16" s="64"/>
       <c r="N16" s="65"/>
       <c r="O16" s="62"/>
       <c r="P16" s="78"/>
-      <c r="Q16" s="453" t="s">
+      <c r="Q16" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="454"/>
+      <c r="R16" s="456"/>
       <c r="S16" s="80"/>
       <c r="T16" s="78"/>
       <c r="U16" s="46"/>
       <c r="V16" s="47"/>
     </row>
-    <row r="17" spans="1:22" s="88" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+    <row r="17" spans="1:22" s="88" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>30</v>
       </c>
@@ -4062,7 +4069,7 @@
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
       <c r="E17" s="82"/>
-      <c r="F17" s="448"/>
+      <c r="F17" s="501"/>
       <c r="G17" s="68"/>
       <c r="H17" s="69"/>
       <c r="I17" s="70" t="s">
@@ -4088,7 +4095,7 @@
       <c r="U17" s="57"/>
       <c r="V17" s="58"/>
     </row>
-    <row r="18" spans="1:22" ht="11.25" customHeight="1">
+    <row r="18" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>41</v>
       </c>
@@ -4096,33 +4103,33 @@
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
-      <c r="F18" s="447" t="s">
+      <c r="F18" s="500" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="89"/>
       <c r="H18" s="66"/>
-      <c r="I18" s="455" t="s">
+      <c r="I18" s="491" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="456"/>
-      <c r="K18" s="461" t="s">
+      <c r="J18" s="492"/>
+      <c r="K18" s="447" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="450"/>
+      <c r="L18" s="448"/>
       <c r="M18" s="64"/>
       <c r="N18" s="65"/>
       <c r="O18" s="90"/>
       <c r="P18" s="91"/>
-      <c r="Q18" s="453" t="s">
+      <c r="Q18" s="455" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="454"/>
+      <c r="R18" s="456"/>
       <c r="S18" s="92"/>
       <c r="T18" s="93"/>
-      <c r="U18" s="469"/>
-      <c r="V18" s="470"/>
-    </row>
-    <row r="19" spans="1:22" s="88" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U18" s="457"/>
+      <c r="V18" s="466"/>
+    </row>
+    <row r="19" spans="1:22" s="88" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>45</v>
       </c>
@@ -4130,13 +4137,13 @@
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
-      <c r="F19" s="448"/>
+      <c r="F19" s="501"/>
       <c r="G19" s="68"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="508" t="s">
+      <c r="I19" s="488" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="509"/>
+      <c r="J19" s="489"/>
       <c r="K19" s="57" t="s">
         <v>47</v>
       </c>
@@ -4158,7 +4165,7 @@
       <c r="U19" s="83"/>
       <c r="V19" s="100"/>
     </row>
-    <row r="20" spans="1:22" ht="10.7" customHeight="1">
+    <row r="20" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
         <v>27</v>
       </c>
@@ -4166,31 +4173,31 @@
       <c r="C20" s="77"/>
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
-      <c r="F20" s="447" t="s">
+      <c r="F20" s="500" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="102"/>
       <c r="I20" s="103"/>
       <c r="J20" s="104"/>
-      <c r="K20" s="461" t="s">
+      <c r="K20" s="447" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="476"/>
-      <c r="M20" s="476"/>
-      <c r="N20" s="450"/>
+      <c r="L20" s="449"/>
+      <c r="M20" s="449"/>
+      <c r="N20" s="448"/>
       <c r="O20" s="62"/>
       <c r="P20" s="66"/>
-      <c r="Q20" s="453" t="s">
+      <c r="Q20" s="455" t="s">
         <v>44</v>
       </c>
-      <c r="R20" s="454"/>
+      <c r="R20" s="456"/>
       <c r="S20" s="92"/>
       <c r="T20" s="93"/>
       <c r="U20" s="105"/>
       <c r="V20" s="106"/>
     </row>
-    <row r="21" spans="1:22" s="88" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+    <row r="21" spans="1:22" s="88" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>52</v>
       </c>
@@ -4198,7 +4205,7 @@
       <c r="C21" s="94"/>
       <c r="D21" s="94"/>
       <c r="E21" s="94"/>
-      <c r="F21" s="448"/>
+      <c r="F21" s="501"/>
       <c r="G21" s="107"/>
       <c r="H21" s="69"/>
       <c r="I21" s="108" t="s">
@@ -4210,8 +4217,8 @@
       <c r="K21" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="501"/>
-      <c r="M21" s="501"/>
+      <c r="L21" s="465"/>
+      <c r="M21" s="465"/>
       <c r="N21" s="71" t="s">
         <v>54</v>
       </c>
@@ -4228,7 +4235,7 @@
       <c r="U21" s="111"/>
       <c r="V21" s="112"/>
     </row>
-    <row r="22" spans="1:22" ht="10.7" customHeight="1">
+    <row r="22" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>56</v>
       </c>
@@ -4236,37 +4243,37 @@
       <c r="C22" s="77"/>
       <c r="D22" s="77"/>
       <c r="E22" s="77"/>
-      <c r="F22" s="447" t="s">
+      <c r="F22" s="500" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="113"/>
       <c r="H22" s="114"/>
-      <c r="I22" s="516"/>
-      <c r="J22" s="500"/>
+      <c r="I22" s="504"/>
+      <c r="J22" s="505"/>
       <c r="K22" s="116"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="461" t="s">
+      <c r="M22" s="447" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="450"/>
+      <c r="N22" s="448"/>
       <c r="O22" s="116"/>
       <c r="P22" s="117"/>
-      <c r="Q22" s="453" t="s">
+      <c r="Q22" s="455" t="s">
         <v>58</v>
       </c>
-      <c r="R22" s="454"/>
+      <c r="R22" s="456"/>
       <c r="S22" s="118"/>
       <c r="T22" s="119"/>
       <c r="U22" s="120"/>
       <c r="V22" s="121"/>
     </row>
-    <row r="23" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="23" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="122"/>
       <c r="B23" s="123"/>
       <c r="C23" s="123"/>
       <c r="D23" s="123"/>
       <c r="E23" s="123"/>
-      <c r="F23" s="473"/>
+      <c r="F23" s="502"/>
       <c r="G23" s="124"/>
       <c r="H23" s="125"/>
       <c r="I23" s="126"/>
@@ -4292,19 +4299,19 @@
       <c r="U23" s="131"/>
       <c r="V23" s="132"/>
     </row>
-    <row r="24" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    <row r="24" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="133"/>
       <c r="B24" s="134"/>
       <c r="C24" s="134"/>
       <c r="D24" s="134"/>
       <c r="E24" s="134"/>
-      <c r="F24" s="468" t="s">
+      <c r="F24" s="503" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="135"/>
       <c r="H24" s="136"/>
-      <c r="I24" s="457"/>
-      <c r="J24" s="458"/>
+      <c r="I24" s="450"/>
+      <c r="J24" s="451"/>
       <c r="K24" s="137"/>
       <c r="L24" s="136"/>
       <c r="M24" s="138"/>
@@ -4318,7 +4325,7 @@
       <c r="U24" s="139"/>
       <c r="V24" s="141"/>
     </row>
-    <row r="25" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="25" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="142"/>
       <c r="B25" s="50">
         <v>3</v>
@@ -4332,7 +4339,7 @@
       <c r="E25" s="50">
         <v>10</v>
       </c>
-      <c r="F25" s="448"/>
+      <c r="F25" s="501"/>
       <c r="G25" s="143"/>
       <c r="H25" s="76"/>
       <c r="I25" s="70"/>
@@ -4350,7 +4357,7 @@
       <c r="U25" s="143"/>
       <c r="V25" s="148"/>
     </row>
-    <row r="26" spans="1:22" ht="10.7" customHeight="1">
+    <row r="26" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
         <v>62</v>
       </c>
@@ -4358,17 +4365,17 @@
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="447" t="s">
+      <c r="F26" s="500" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="449" t="s">
+      <c r="G26" s="485" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="450"/>
-      <c r="I26" s="459" t="s">
+      <c r="H26" s="448"/>
+      <c r="I26" s="528" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="460"/>
+      <c r="J26" s="536"/>
       <c r="K26" s="149"/>
       <c r="L26" s="150"/>
       <c r="M26" s="151"/>
@@ -4384,7 +4391,7 @@
       </c>
       <c r="V26" s="47"/>
     </row>
-    <row r="27" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="27" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>66</v>
       </c>
@@ -4400,7 +4407,7 @@
       <c r="E27" s="50">
         <v>24</v>
       </c>
-      <c r="F27" s="448"/>
+      <c r="F27" s="501"/>
       <c r="G27" s="156" t="s">
         <v>67</v>
       </c>
@@ -4408,10 +4415,10 @@
         <v>68</v>
       </c>
       <c r="I27" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" s="71" t="s">
         <v>69</v>
-      </c>
-      <c r="J27" s="71" t="s">
-        <v>70</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="69"/>
@@ -4424,13 +4431,13 @@
       <c r="S27" s="161"/>
       <c r="T27" s="158"/>
       <c r="U27" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="V27" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="V27" s="100" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="10.7" customHeight="1">
+    </row>
+    <row r="28" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
         <v>26</v>
       </c>
@@ -4438,17 +4445,17 @@
       <c r="C28" s="77"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>
-      <c r="F28" s="447" t="s">
+      <c r="F28" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="449" t="s">
+      <c r="G28" s="485" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="450"/>
-      <c r="I28" s="455" t="s">
+      <c r="H28" s="448"/>
+      <c r="I28" s="491" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="456"/>
+      <c r="J28" s="492"/>
       <c r="K28" s="90"/>
       <c r="L28" s="162"/>
       <c r="M28" s="163"/>
@@ -4464,9 +4471,9 @@
       </c>
       <c r="V28" s="168"/>
     </row>
-    <row r="29" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="29" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50">
@@ -4474,12 +4481,12 @@
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="448"/>
+      <c r="F29" s="501"/>
       <c r="G29" s="156" t="s">
         <v>67</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="169"/>
       <c r="J29" s="170"/>
@@ -4494,13 +4501,13 @@
       <c r="S29" s="85"/>
       <c r="T29" s="144"/>
       <c r="U29" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V29" s="173" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="10.7" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="49" t="s">
         <v>27</v>
       </c>
@@ -4508,17 +4515,17 @@
       <c r="C30" s="77"/>
       <c r="D30" s="77"/>
       <c r="E30" s="77"/>
-      <c r="F30" s="447" t="s">
+      <c r="F30" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="449" t="s">
+      <c r="G30" s="485" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="448"/>
+      <c r="I30" s="488" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="450"/>
-      <c r="I30" s="508" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="509"/>
+      <c r="J30" s="489"/>
       <c r="K30" s="149"/>
       <c r="L30" s="164"/>
       <c r="M30" s="174"/>
@@ -4527,14 +4534,14 @@
       <c r="P30" s="177"/>
       <c r="Q30" s="93"/>
       <c r="R30" s="178"/>
-      <c r="S30" s="471"/>
-      <c r="T30" s="472"/>
-      <c r="U30" s="451" t="s">
-        <v>78</v>
-      </c>
-      <c r="V30" s="452"/>
-    </row>
-    <row r="31" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="S30" s="517"/>
+      <c r="T30" s="459"/>
+      <c r="U30" s="482" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" s="483"/>
+    </row>
+    <row r="31" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>52</v>
       </c>
@@ -4542,18 +4549,18 @@
       <c r="C31" s="94"/>
       <c r="D31" s="94"/>
       <c r="E31" s="94"/>
-      <c r="F31" s="448"/>
+      <c r="F31" s="501"/>
       <c r="G31" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="I31" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" s="109" t="s">
         <v>80</v>
-      </c>
-      <c r="I31" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="109" t="s">
-        <v>81</v>
       </c>
       <c r="K31" s="54"/>
       <c r="L31" s="52"/>
@@ -4564,17 +4571,17 @@
       <c r="Q31" s="99"/>
       <c r="R31" s="181"/>
       <c r="S31" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T31" s="69"/>
       <c r="U31" s="182" t="s">
+        <v>82</v>
+      </c>
+      <c r="V31" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="V31" s="183" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    </row>
+    <row r="32" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
         <v>56</v>
       </c>
@@ -4582,7 +4589,7 @@
       <c r="C32" s="77"/>
       <c r="D32" s="77"/>
       <c r="E32" s="77"/>
-      <c r="F32" s="447" t="s">
+      <c r="F32" s="500" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="184"/>
@@ -4597,22 +4604,22 @@
       <c r="P32" s="177"/>
       <c r="Q32" s="93"/>
       <c r="R32" s="178"/>
-      <c r="S32" s="462" t="s">
+      <c r="S32" s="532" t="s">
+        <v>84</v>
+      </c>
+      <c r="T32" s="533"/>
+      <c r="U32" s="526" t="s">
         <v>85</v>
       </c>
-      <c r="T32" s="463"/>
-      <c r="U32" s="492" t="s">
-        <v>86</v>
-      </c>
-      <c r="V32" s="493"/>
-    </row>
-    <row r="33" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="V32" s="527"/>
+    </row>
+    <row r="33" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="94"/>
       <c r="C33" s="94"/>
       <c r="D33" s="94"/>
       <c r="E33" s="94"/>
-      <c r="F33" s="448"/>
+      <c r="F33" s="501"/>
       <c r="G33" s="68"/>
       <c r="H33" s="69"/>
       <c r="I33" s="70"/>
@@ -4628,17 +4635,17 @@
       <c r="S33" s="189"/>
       <c r="T33" s="117"/>
       <c r="U33" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V33" s="56"/>
     </row>
-    <row r="34" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    <row r="34" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
       <c r="D34" s="77"/>
       <c r="E34" s="77"/>
-      <c r="F34" s="447" t="s">
+      <c r="F34" s="500" t="s">
         <v>57</v>
       </c>
       <c r="G34" s="184"/>
@@ -4653,42 +4660,42 @@
       <c r="P34" s="177"/>
       <c r="Q34" s="93"/>
       <c r="R34" s="178"/>
-      <c r="S34" s="464" t="s">
-        <v>86</v>
-      </c>
-      <c r="T34" s="465"/>
+      <c r="S34" s="534" t="s">
+        <v>85</v>
+      </c>
+      <c r="T34" s="531"/>
       <c r="U34" s="46"/>
       <c r="V34" s="193"/>
     </row>
-    <row r="35" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="35" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="122"/>
       <c r="B35" s="123"/>
       <c r="C35" s="123"/>
       <c r="D35" s="123"/>
       <c r="E35" s="123"/>
-      <c r="F35" s="473"/>
+      <c r="F35" s="502"/>
       <c r="G35" s="194"/>
       <c r="H35" s="84"/>
       <c r="I35" s="128"/>
       <c r="J35" s="125"/>
-      <c r="K35" s="517"/>
-      <c r="L35" s="518"/>
-      <c r="M35" s="502"/>
-      <c r="N35" s="502"/>
+      <c r="K35" s="498"/>
+      <c r="L35" s="499"/>
+      <c r="M35" s="484"/>
+      <c r="N35" s="484"/>
       <c r="O35" s="83"/>
       <c r="P35" s="197"/>
       <c r="Q35" s="198"/>
       <c r="R35" s="181"/>
       <c r="S35" s="199" t="s">
+        <v>87</v>
+      </c>
+      <c r="T35" s="200" t="s">
         <v>88</v>
-      </c>
-      <c r="T35" s="200" t="s">
-        <v>89</v>
       </c>
       <c r="U35" s="201"/>
       <c r="V35" s="202"/>
     </row>
-    <row r="36" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    <row r="36" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="133"/>
       <c r="B36" s="134"/>
       <c r="C36" s="134"/>
@@ -4712,9 +4719,9 @@
       <c r="U36" s="139"/>
       <c r="V36" s="141"/>
     </row>
-    <row r="37" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="37" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="208" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="50">
         <v>4</v>
@@ -4748,7 +4755,7 @@
       <c r="U37" s="211"/>
       <c r="V37" s="214"/>
     </row>
-    <row r="38" spans="1:22" ht="10.7" customHeight="1">
+    <row r="38" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="49"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -4757,26 +4764,26 @@
       <c r="F38" s="217"/>
       <c r="G38" s="113"/>
       <c r="H38" s="218"/>
-      <c r="I38" s="461" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="450"/>
+      <c r="I38" s="447" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="448"/>
       <c r="K38" s="176"/>
       <c r="L38" s="177"/>
       <c r="M38" s="93"/>
       <c r="N38" s="177"/>
       <c r="O38" s="219"/>
       <c r="P38" s="218"/>
-      <c r="Q38" s="451"/>
-      <c r="R38" s="452"/>
+      <c r="Q38" s="482"/>
+      <c r="R38" s="483"/>
       <c r="S38" s="220"/>
       <c r="T38" s="166"/>
-      <c r="U38" s="485"/>
-      <c r="V38" s="486"/>
-    </row>
-    <row r="39" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U38" s="468"/>
+      <c r="V38" s="469"/>
+    </row>
+    <row r="39" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="50">
         <v>18</v>
@@ -4796,7 +4803,7 @@
       <c r="G39" s="107"/>
       <c r="H39" s="69"/>
       <c r="I39" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="53" t="s">
         <v>54</v>
@@ -4814,37 +4821,37 @@
       <c r="U39" s="223"/>
       <c r="V39" s="173"/>
     </row>
-    <row r="40" spans="1:22" ht="10.7" customHeight="1">
+    <row r="40" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="49"/>
       <c r="B40" s="77"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
       <c r="E40" s="37"/>
       <c r="F40" s="217"/>
-      <c r="G40" s="449" t="s">
+      <c r="G40" s="485" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="449"/>
+      <c r="I40" s="447" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="448"/>
+      <c r="K40" s="457" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="476"/>
-      <c r="I40" s="461" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="450"/>
-      <c r="K40" s="469" t="s">
-        <v>94</v>
-      </c>
-      <c r="L40" s="477"/>
-      <c r="M40" s="477"/>
-      <c r="N40" s="506"/>
+      <c r="L40" s="486"/>
+      <c r="M40" s="486"/>
+      <c r="N40" s="458"/>
       <c r="O40" s="62"/>
       <c r="P40" s="61"/>
-      <c r="Q40" s="453"/>
-      <c r="R40" s="454"/>
+      <c r="Q40" s="455"/>
+      <c r="R40" s="456"/>
       <c r="S40" s="46"/>
       <c r="T40" s="61"/>
-      <c r="U40" s="485"/>
-      <c r="V40" s="486"/>
-    </row>
-    <row r="41" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U40" s="468"/>
+      <c r="V40" s="469"/>
+    </row>
+    <row r="41" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>30</v>
       </c>
@@ -4858,24 +4865,24 @@
         <v>34</v>
       </c>
       <c r="G41" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="171" t="s">
-        <v>96</v>
-      </c>
       <c r="I41" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="53" t="s">
         <v>54</v>
       </c>
       <c r="K41" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="464"/>
+      <c r="M41" s="464"/>
+      <c r="N41" s="71" t="s">
         <v>97</v>
-      </c>
-      <c r="L41" s="483"/>
-      <c r="M41" s="483"/>
-      <c r="N41" s="71" t="s">
-        <v>98</v>
       </c>
       <c r="O41" s="97"/>
       <c r="P41" s="157"/>
@@ -4886,41 +4893,41 @@
       <c r="U41" s="223"/>
       <c r="V41" s="173"/>
     </row>
-    <row r="42" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    <row r="42" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49"/>
       <c r="B42" s="77"/>
       <c r="C42" s="77"/>
       <c r="D42" s="77"/>
       <c r="E42" s="77"/>
       <c r="F42" s="217"/>
-      <c r="G42" s="449" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="450"/>
-      <c r="I42" s="455" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" s="456"/>
-      <c r="K42" s="453" t="s">
+      <c r="G42" s="485" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="448"/>
+      <c r="I42" s="491" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="492"/>
+      <c r="K42" s="455" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="459"/>
+      <c r="M42" s="447" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="472"/>
-      <c r="M42" s="461" t="s">
-        <v>100</v>
-      </c>
-      <c r="N42" s="450"/>
+      <c r="N42" s="448"/>
       <c r="O42" s="62"/>
       <c r="P42" s="61"/>
-      <c r="Q42" s="453"/>
-      <c r="R42" s="454"/>
-      <c r="S42" s="466"/>
-      <c r="T42" s="467"/>
-      <c r="U42" s="485" t="s">
+      <c r="Q42" s="455"/>
+      <c r="R42" s="456"/>
+      <c r="S42" s="535"/>
+      <c r="T42" s="516"/>
+      <c r="U42" s="468" t="s">
         <v>65</v>
       </c>
-      <c r="V42" s="486"/>
-    </row>
-    <row r="43" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="V42" s="469"/>
+    </row>
+    <row r="43" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>33</v>
       </c>
@@ -4932,81 +4939,79 @@
         <v>42</v>
       </c>
       <c r="G43" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H43" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="488" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="508" t="s">
+      <c r="J43" s="489"/>
+      <c r="K43" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="509"/>
-      <c r="K43" s="98" t="s">
+      <c r="L43" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="L43" s="71" t="s">
+      <c r="M43" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="70" t="s">
+      <c r="N43" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="N43" s="71" t="s">
-        <v>106</v>
-      </c>
       <c r="O43" s="179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P43" s="84"/>
       <c r="Q43" s="179"/>
       <c r="R43" s="226"/>
       <c r="S43" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T43" s="144"/>
       <c r="U43" s="223" t="s">
-        <v>107</v>
-      </c>
-      <c r="V43" s="446" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="V43" s="446"/>
+    </row>
+    <row r="44" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49"/>
       <c r="B44" s="77"/>
       <c r="C44" s="77"/>
       <c r="D44" s="77"/>
       <c r="E44" s="77"/>
       <c r="F44" s="217"/>
-      <c r="G44" s="507" t="s">
+      <c r="G44" s="490" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="459"/>
+      <c r="I44" s="493"/>
+      <c r="J44" s="494"/>
+      <c r="K44" s="447" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="448"/>
+      <c r="M44" s="455" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="459"/>
+      <c r="O44" s="447" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="472"/>
-      <c r="I44" s="519"/>
-      <c r="J44" s="520"/>
-      <c r="K44" s="461" t="s">
-        <v>100</v>
-      </c>
-      <c r="L44" s="450"/>
-      <c r="M44" s="453" t="s">
-        <v>99</v>
-      </c>
-      <c r="N44" s="472"/>
-      <c r="O44" s="461" t="s">
+      <c r="P44" s="448"/>
+      <c r="Q44" s="455"/>
+      <c r="R44" s="456"/>
+      <c r="S44" s="517" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="450"/>
-      <c r="Q44" s="453"/>
-      <c r="R44" s="454"/>
-      <c r="S44" s="471" t="s">
-        <v>110</v>
-      </c>
-      <c r="T44" s="472"/>
+      <c r="T44" s="459"/>
       <c r="U44" s="227"/>
       <c r="V44" s="228"/>
     </row>
-    <row r="45" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="45" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="94"/>
       <c r="C45" s="94"/>
@@ -5016,85 +5021,85 @@
         <v>51</v>
       </c>
       <c r="G45" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="109" t="s">
+      <c r="K45" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="M45" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="N45" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="O45" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="K45" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="L45" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="M45" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="N45" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="O45" s="72" t="s">
+      <c r="P45" s="144" t="s">
         <v>114</v>
-      </c>
-      <c r="P45" s="144" t="s">
-        <v>115</v>
       </c>
       <c r="Q45" s="85"/>
       <c r="R45" s="86"/>
       <c r="S45" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="T45" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="T45" s="144" t="s">
+      <c r="U45" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="V45" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="U45" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="V45" s="173" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    </row>
+    <row r="46" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="49"/>
       <c r="B46" s="77"/>
       <c r="C46" s="77"/>
       <c r="D46" s="77"/>
       <c r="E46" s="77"/>
       <c r="F46" s="217"/>
-      <c r="G46" s="507" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46" s="472"/>
+      <c r="G46" s="490" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="459"/>
       <c r="I46" s="229"/>
       <c r="J46" s="52"/>
-      <c r="K46" s="461" t="s">
-        <v>100</v>
-      </c>
-      <c r="L46" s="476"/>
-      <c r="M46" s="476"/>
-      <c r="N46" s="450"/>
+      <c r="K46" s="447" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46" s="449"/>
+      <c r="M46" s="449"/>
+      <c r="N46" s="448"/>
       <c r="O46" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="455"/>
+      <c r="R46" s="456"/>
+      <c r="S46" s="517" t="s">
         <v>119</v>
       </c>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="453"/>
-      <c r="R46" s="454"/>
-      <c r="S46" s="471" t="s">
+      <c r="T46" s="459"/>
+      <c r="U46" s="468" t="s">
         <v>120</v>
       </c>
-      <c r="T46" s="472"/>
-      <c r="U46" s="485" t="s">
-        <v>121</v>
-      </c>
-      <c r="V46" s="486"/>
-    </row>
-    <row r="47" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="V46" s="469"/>
+    </row>
+    <row r="47" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="122"/>
       <c r="B47" s="123"/>
       <c r="C47" s="123"/>
@@ -5104,49 +5109,49 @@
         <v>57</v>
       </c>
       <c r="G47" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I47" s="231"/>
       <c r="J47" s="71"/>
       <c r="K47" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L47" s="74"/>
       <c r="M47" s="74"/>
       <c r="N47" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O47" s="130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P47" s="117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q47" s="98"/>
       <c r="R47" s="86"/>
       <c r="S47" s="232" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T47" s="144" t="s">
+        <v>123</v>
+      </c>
+      <c r="U47" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="U47" s="128" t="s">
+      <c r="V47" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="V47" s="129" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    </row>
+    <row r="48" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A48" s="133"/>
       <c r="B48" s="134"/>
       <c r="C48" s="134"/>
       <c r="D48" s="134"/>
       <c r="E48" s="134"/>
-      <c r="F48" s="468" t="s">
+      <c r="F48" s="503" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="233"/>
@@ -5166,7 +5171,7 @@
       <c r="U48" s="44"/>
       <c r="V48" s="235"/>
     </row>
-    <row r="49" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="49" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="208"/>
       <c r="B49" s="50">
         <v>5</v>
@@ -5180,7 +5185,7 @@
       <c r="E49" s="50">
         <v>12</v>
       </c>
-      <c r="F49" s="448"/>
+      <c r="F49" s="501"/>
       <c r="G49" s="107"/>
       <c r="H49" s="69"/>
       <c r="I49" s="236"/>
@@ -5198,23 +5203,23 @@
       <c r="U49" s="75"/>
       <c r="V49" s="58"/>
     </row>
-    <row r="50" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    <row r="50" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="208" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
-      <c r="F50" s="447" t="s">
+      <c r="F50" s="500" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="507" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="472"/>
-      <c r="I50" s="461"/>
-      <c r="J50" s="450"/>
+      <c r="G50" s="490" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="459"/>
+      <c r="I50" s="447"/>
+      <c r="J50" s="448"/>
       <c r="K50" s="62"/>
       <c r="L50" s="63"/>
       <c r="M50" s="64"/>
@@ -5228,7 +5233,7 @@
       <c r="U50" s="163"/>
       <c r="V50" s="237"/>
     </row>
-    <row r="51" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+    <row r="51" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>30</v>
       </c>
@@ -5244,12 +5249,12 @@
       <c r="E51" s="50">
         <v>26</v>
       </c>
-      <c r="F51" s="448"/>
+      <c r="F51" s="501"/>
       <c r="G51" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I51" s="70"/>
       <c r="J51" s="53"/>
@@ -5266,7 +5271,7 @@
       <c r="U51" s="55"/>
       <c r="V51" s="181"/>
     </row>
-    <row r="52" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    <row r="52" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="49" t="s">
         <v>66</v>
       </c>
@@ -5274,21 +5279,21 @@
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
       <c r="E52" s="77"/>
-      <c r="F52" s="447" t="s">
+      <c r="F52" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="507" t="s">
-        <v>108</v>
-      </c>
-      <c r="H52" s="472"/>
-      <c r="I52" s="461"/>
-      <c r="J52" s="450"/>
-      <c r="K52" s="461" t="s">
-        <v>128</v>
-      </c>
-      <c r="L52" s="476"/>
-      <c r="M52" s="476"/>
-      <c r="N52" s="450"/>
+      <c r="G52" s="490" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="459"/>
+      <c r="I52" s="447"/>
+      <c r="J52" s="448"/>
+      <c r="K52" s="447" t="s">
+        <v>263</v>
+      </c>
+      <c r="L52" s="449"/>
+      <c r="M52" s="449"/>
+      <c r="N52" s="448"/>
       <c r="O52" s="165"/>
       <c r="P52" s="166"/>
       <c r="Q52" s="167"/>
@@ -5298,7 +5303,7 @@
       <c r="U52" s="46"/>
       <c r="V52" s="56"/>
     </row>
-    <row r="53" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="53" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>62</v>
       </c>
@@ -5308,7 +5313,7 @@
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="50"/>
-      <c r="F53" s="448"/>
+      <c r="F53" s="501"/>
       <c r="G53" s="238"/>
       <c r="H53" s="239"/>
       <c r="I53" s="70"/>
@@ -5316,10 +5321,10 @@
       <c r="K53" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="L53" s="521"/>
-      <c r="M53" s="521"/>
+      <c r="L53" s="487"/>
+      <c r="M53" s="487"/>
       <c r="N53" s="71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O53" s="85"/>
       <c r="P53" s="144"/>
@@ -5330,7 +5335,7 @@
       <c r="U53" s="179"/>
       <c r="V53" s="181"/>
     </row>
-    <row r="54" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    <row r="54" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="49" t="s">
         <v>30</v>
       </c>
@@ -5338,23 +5343,23 @@
       <c r="C54" s="77"/>
       <c r="D54" s="77"/>
       <c r="E54" s="77"/>
-      <c r="F54" s="447" t="s">
+      <c r="F54" s="500" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="184"/>
       <c r="H54" s="91"/>
-      <c r="I54" s="461" t="s">
+      <c r="I54" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="450"/>
-      <c r="K54" s="461" t="s">
-        <v>130</v>
-      </c>
-      <c r="L54" s="476"/>
-      <c r="M54" s="461" t="s">
-        <v>131</v>
-      </c>
-      <c r="N54" s="450"/>
+      <c r="J54" s="448"/>
+      <c r="K54" s="447" t="s">
+        <v>128</v>
+      </c>
+      <c r="L54" s="449"/>
+      <c r="M54" s="447" t="s">
+        <v>263</v>
+      </c>
+      <c r="N54" s="448"/>
       <c r="O54" s="176"/>
       <c r="P54" s="177"/>
       <c r="Q54" s="176"/>
@@ -5364,20 +5369,20 @@
       <c r="U54" s="46"/>
       <c r="V54" s="56"/>
     </row>
-    <row r="55" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="55" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="82"/>
       <c r="C55" s="82"/>
       <c r="D55" s="82"/>
       <c r="E55" s="82"/>
-      <c r="F55" s="448"/>
+      <c r="F55" s="501"/>
       <c r="G55" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I55" s="70" t="s">
         <v>37</v>
@@ -5386,10 +5391,10 @@
         <v>38</v>
       </c>
       <c r="K55" s="72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L55" s="57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M55" s="70" t="s">
         <v>47</v>
@@ -5398,65 +5403,65 @@
         <v>48</v>
       </c>
       <c r="O55" s="179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P55" s="180"/>
       <c r="Q55" s="179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R55" s="181"/>
       <c r="S55" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T55" s="157"/>
       <c r="U55" s="179"/>
       <c r="V55" s="181"/>
     </row>
-    <row r="56" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1">
+    <row r="56" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B56" s="77"/>
       <c r="C56" s="77"/>
       <c r="D56" s="77"/>
       <c r="E56" s="77"/>
-      <c r="F56" s="447" t="s">
+      <c r="F56" s="500" t="s">
         <v>51</v>
       </c>
       <c r="G56" s="113"/>
       <c r="H56" s="52"/>
-      <c r="I56" s="461" t="s">
+      <c r="I56" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="J56" s="450"/>
-      <c r="K56" s="461" t="s">
-        <v>131</v>
-      </c>
-      <c r="L56" s="450"/>
-      <c r="M56" s="461" t="s">
-        <v>130</v>
-      </c>
-      <c r="N56" s="450"/>
-      <c r="O56" s="469" t="s">
-        <v>136</v>
-      </c>
-      <c r="P56" s="477"/>
-      <c r="Q56" s="477"/>
-      <c r="R56" s="470"/>
-      <c r="S56" s="484" t="s">
-        <v>137</v>
-      </c>
-      <c r="T56" s="450"/>
+      <c r="J56" s="448"/>
+      <c r="K56" s="447" t="s">
+        <v>263</v>
+      </c>
+      <c r="L56" s="448"/>
+      <c r="M56" s="447" t="s">
+        <v>128</v>
+      </c>
+      <c r="N56" s="448"/>
+      <c r="O56" s="457" t="s">
+        <v>133</v>
+      </c>
+      <c r="P56" s="486"/>
+      <c r="Q56" s="486"/>
+      <c r="R56" s="466"/>
+      <c r="S56" s="454" t="s">
+        <v>134</v>
+      </c>
+      <c r="T56" s="448"/>
       <c r="U56" s="241"/>
       <c r="V56" s="242"/>
     </row>
-    <row r="57" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="57" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49"/>
       <c r="B57" s="82"/>
       <c r="C57" s="82"/>
       <c r="D57" s="82"/>
       <c r="E57" s="82"/>
-      <c r="F57" s="448"/>
+      <c r="F57" s="501"/>
       <c r="G57" s="68"/>
       <c r="H57" s="69"/>
       <c r="I57" s="70" t="s">
@@ -5472,115 +5477,115 @@
         <v>48</v>
       </c>
       <c r="M57" s="72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N57" s="57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O57" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="P57" s="464"/>
+      <c r="Q57" s="464"/>
+      <c r="R57" s="181" t="s">
+        <v>136</v>
+      </c>
+      <c r="S57" s="243" t="s">
+        <v>137</v>
+      </c>
+      <c r="T57" s="69" t="s">
         <v>138</v>
-      </c>
-      <c r="P57" s="483"/>
-      <c r="Q57" s="483"/>
-      <c r="R57" s="181" t="s">
-        <v>139</v>
-      </c>
-      <c r="S57" s="243" t="s">
-        <v>140</v>
-      </c>
-      <c r="T57" s="69" t="s">
-        <v>141</v>
       </c>
       <c r="U57" s="222"/>
       <c r="V57" s="181"/>
     </row>
-    <row r="58" spans="1:22" ht="10.7" customHeight="1">
+    <row r="58" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="49"/>
       <c r="B58" s="77"/>
       <c r="C58" s="77"/>
       <c r="D58" s="77"/>
       <c r="E58" s="77"/>
-      <c r="F58" s="447" t="s">
+      <c r="F58" s="500" t="s">
         <v>57</v>
       </c>
       <c r="G58" s="101"/>
       <c r="H58" s="102"/>
-      <c r="I58" s="453" t="s">
-        <v>142</v>
-      </c>
-      <c r="J58" s="472"/>
-      <c r="K58" s="461" t="s">
-        <v>130</v>
-      </c>
-      <c r="L58" s="476"/>
-      <c r="M58" s="476"/>
-      <c r="N58" s="450"/>
-      <c r="O58" s="469" t="s">
-        <v>136</v>
-      </c>
-      <c r="P58" s="477"/>
-      <c r="Q58" s="477"/>
-      <c r="R58" s="470"/>
-      <c r="S58" s="484" t="s">
-        <v>137</v>
-      </c>
-      <c r="T58" s="450"/>
+      <c r="I58" s="455" t="s">
+        <v>139</v>
+      </c>
+      <c r="J58" s="459"/>
+      <c r="K58" s="447" t="s">
+        <v>128</v>
+      </c>
+      <c r="L58" s="449"/>
+      <c r="M58" s="449"/>
+      <c r="N58" s="448"/>
+      <c r="O58" s="457" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" s="486"/>
+      <c r="Q58" s="486"/>
+      <c r="R58" s="466"/>
+      <c r="S58" s="454" t="s">
+        <v>134</v>
+      </c>
+      <c r="T58" s="448"/>
       <c r="U58" s="46"/>
       <c r="V58" s="79"/>
     </row>
-    <row r="59" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="59" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="122"/>
       <c r="B59" s="244"/>
       <c r="C59" s="244"/>
       <c r="D59" s="244"/>
       <c r="E59" s="244"/>
-      <c r="F59" s="473"/>
+      <c r="F59" s="502"/>
       <c r="G59" s="245"/>
       <c r="H59" s="246"/>
       <c r="I59" s="247" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J59" s="246" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K59" s="248" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L59" s="249"/>
       <c r="M59" s="249"/>
       <c r="N59" s="246" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O59" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="P59" s="483"/>
-      <c r="Q59" s="483"/>
+        <v>135</v>
+      </c>
+      <c r="P59" s="464"/>
+      <c r="Q59" s="464"/>
       <c r="R59" s="181" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S59" s="250" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="T59" s="251" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U59" s="201"/>
       <c r="V59" s="129"/>
     </row>
-    <row r="60" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    <row r="60" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="133"/>
       <c r="B60" s="134"/>
       <c r="C60" s="134"/>
       <c r="D60" s="134"/>
       <c r="E60" s="134"/>
-      <c r="F60" s="468" t="s">
+      <c r="F60" s="503" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="499" t="s">
-        <v>147</v>
-      </c>
-      <c r="H60" s="450"/>
+      <c r="G60" s="497" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="448"/>
       <c r="I60" s="165"/>
       <c r="J60" s="55"/>
       <c r="K60" s="116"/>
@@ -5596,7 +5601,7 @@
       <c r="U60" s="254"/>
       <c r="V60" s="255"/>
     </row>
-    <row r="61" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="61" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="208"/>
       <c r="B61" s="50">
         <v>6</v>
@@ -5610,12 +5615,12 @@
       <c r="E61" s="50">
         <v>13</v>
       </c>
-      <c r="F61" s="448"/>
+      <c r="F61" s="501"/>
       <c r="G61" s="107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H61" s="69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I61" s="256"/>
       <c r="J61" s="84"/>
@@ -5632,7 +5637,7 @@
       <c r="U61" s="75"/>
       <c r="V61" s="58"/>
     </row>
-    <row r="62" spans="1:22" ht="10.7" customHeight="1">
+    <row r="62" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="208" t="s">
         <v>23</v>
       </c>
@@ -5640,33 +5645,33 @@
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
-      <c r="F62" s="447" t="s">
+      <c r="F62" s="500" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="449" t="s">
+      <c r="G62" s="485" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="448"/>
+      <c r="I62" s="449" t="s">
         <v>147</v>
       </c>
-      <c r="H62" s="450"/>
-      <c r="I62" s="476" t="s">
-        <v>150</v>
-      </c>
-      <c r="J62" s="450"/>
+      <c r="J62" s="448"/>
       <c r="K62" s="149"/>
       <c r="L62" s="66"/>
       <c r="M62" s="163"/>
       <c r="N62" s="60"/>
       <c r="O62" s="219"/>
       <c r="P62" s="218"/>
-      <c r="Q62" s="451"/>
-      <c r="R62" s="452"/>
+      <c r="Q62" s="482"/>
+      <c r="R62" s="483"/>
       <c r="S62" s="163"/>
       <c r="T62" s="61"/>
       <c r="U62" s="163"/>
       <c r="V62" s="257"/>
     </row>
-    <row r="63" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="63" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B63" s="50">
         <v>20</v>
@@ -5680,18 +5685,18 @@
       <c r="E63" s="50">
         <v>27</v>
       </c>
-      <c r="F63" s="448"/>
+      <c r="F63" s="501"/>
       <c r="G63" s="107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H63" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I63" s="215" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J63" s="71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K63" s="72"/>
       <c r="L63" s="69"/>
@@ -5706,7 +5711,7 @@
       <c r="U63" s="57"/>
       <c r="V63" s="100"/>
     </row>
-    <row r="64" spans="1:22" ht="10.7" customHeight="1">
+    <row r="64" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="49" t="s">
         <v>66</v>
       </c>
@@ -5714,31 +5719,31 @@
       <c r="C64" s="77"/>
       <c r="D64" s="77"/>
       <c r="E64" s="77"/>
-      <c r="F64" s="447" t="s">
+      <c r="F64" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="449" t="s">
-        <v>154</v>
-      </c>
-      <c r="H64" s="450"/>
-      <c r="I64" s="496" t="s">
-        <v>155</v>
-      </c>
-      <c r="J64" s="497"/>
+      <c r="G64" s="485" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="448"/>
+      <c r="I64" s="495" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" s="496"/>
       <c r="K64" s="62"/>
       <c r="L64" s="258"/>
       <c r="M64" s="46"/>
       <c r="N64" s="258"/>
       <c r="O64" s="62"/>
       <c r="P64" s="61"/>
-      <c r="Q64" s="453"/>
-      <c r="R64" s="454"/>
+      <c r="Q64" s="455"/>
+      <c r="R64" s="456"/>
       <c r="S64" s="163"/>
       <c r="T64" s="61"/>
       <c r="U64" s="105"/>
       <c r="V64" s="106"/>
     </row>
-    <row r="65" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="65" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
         <v>27</v>
       </c>
@@ -5748,18 +5753,18 @@
         <v>29</v>
       </c>
       <c r="E65" s="50"/>
-      <c r="F65" s="448"/>
+      <c r="F65" s="501"/>
       <c r="G65" s="68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H65" s="69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I65" s="70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J65" s="71" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="K65" s="72"/>
       <c r="L65" s="73"/>
@@ -5774,7 +5779,7 @@
       <c r="U65" s="111"/>
       <c r="V65" s="112"/>
     </row>
-    <row r="66" spans="1:22" ht="10.7" customHeight="1">
+    <row r="66" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="49" t="s">
         <v>52</v>
       </c>
@@ -5782,57 +5787,57 @@
       <c r="C66" s="77"/>
       <c r="D66" s="77"/>
       <c r="E66" s="77"/>
-      <c r="F66" s="447" t="s">
+      <c r="F66" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G66" s="449" t="s">
-        <v>154</v>
-      </c>
-      <c r="H66" s="450"/>
-      <c r="I66" s="496" t="s">
-        <v>155</v>
-      </c>
-      <c r="J66" s="497"/>
+      <c r="G66" s="485" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="448"/>
+      <c r="I66" s="495" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" s="496"/>
       <c r="K66" s="62"/>
       <c r="L66" s="258"/>
       <c r="M66" s="46"/>
       <c r="N66" s="258"/>
       <c r="O66" s="62"/>
       <c r="P66" s="61"/>
-      <c r="Q66" s="453"/>
-      <c r="R66" s="454"/>
+      <c r="Q66" s="455"/>
+      <c r="R66" s="456"/>
       <c r="S66" s="80"/>
       <c r="T66" s="258"/>
       <c r="U66" s="120"/>
       <c r="V66" s="121"/>
     </row>
-    <row r="67" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="67" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B67" s="82"/>
       <c r="C67" s="82"/>
       <c r="D67" s="82"/>
       <c r="E67" s="82"/>
-      <c r="F67" s="448"/>
+      <c r="F67" s="501"/>
       <c r="G67" s="68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I67" s="70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J67" s="71" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="K67" s="72"/>
       <c r="L67" s="71"/>
       <c r="M67" s="57"/>
       <c r="N67" s="71"/>
       <c r="O67" s="179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P67" s="157"/>
       <c r="Q67" s="225"/>
@@ -5842,43 +5847,43 @@
       <c r="U67" s="260"/>
       <c r="V67" s="261"/>
     </row>
-    <row r="68" spans="1:22" ht="10.7" customHeight="1">
+    <row r="68" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" s="77"/>
       <c r="C68" s="77"/>
       <c r="D68" s="77"/>
       <c r="E68" s="77"/>
-      <c r="F68" s="447" t="s">
+      <c r="F68" s="500" t="s">
         <v>51</v>
       </c>
-      <c r="G68" s="449"/>
-      <c r="H68" s="476"/>
-      <c r="I68" s="461"/>
-      <c r="J68" s="450"/>
+      <c r="G68" s="485"/>
+      <c r="H68" s="449"/>
+      <c r="I68" s="447"/>
+      <c r="J68" s="448"/>
       <c r="K68" s="62"/>
       <c r="L68" s="258"/>
       <c r="M68" s="46"/>
       <c r="N68" s="258"/>
       <c r="O68" s="62" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P68" s="60"/>
-      <c r="Q68" s="469"/>
-      <c r="R68" s="470"/>
+      <c r="Q68" s="457"/>
+      <c r="R68" s="466"/>
       <c r="S68" s="80"/>
       <c r="T68" s="258"/>
       <c r="U68" s="191"/>
       <c r="V68" s="262"/>
     </row>
-    <row r="69" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="69" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
       <c r="B69" s="82"/>
       <c r="C69" s="82"/>
       <c r="D69" s="82"/>
       <c r="E69" s="82"/>
-      <c r="F69" s="448"/>
+      <c r="F69" s="501"/>
       <c r="G69" s="107"/>
       <c r="H69" s="171"/>
       <c r="I69" s="70"/>
@@ -5888,10 +5893,10 @@
       <c r="M69" s="171"/>
       <c r="N69" s="71"/>
       <c r="O69" s="130" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P69" s="117" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q69" s="83"/>
       <c r="R69" s="181"/>
@@ -5900,41 +5905,41 @@
       <c r="U69" s="171"/>
       <c r="V69" s="181"/>
     </row>
-    <row r="70" spans="1:22" ht="10.7" customHeight="1">
+    <row r="70" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="49"/>
       <c r="B70" s="77"/>
       <c r="C70" s="77"/>
       <c r="D70" s="77"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="447" t="s">
+      <c r="F70" s="500" t="s">
         <v>57</v>
       </c>
-      <c r="G70" s="449"/>
-      <c r="H70" s="450"/>
-      <c r="I70" s="453"/>
-      <c r="J70" s="472"/>
+      <c r="G70" s="485"/>
+      <c r="H70" s="448"/>
+      <c r="I70" s="455"/>
+      <c r="J70" s="459"/>
       <c r="K70" s="62"/>
       <c r="L70" s="258"/>
       <c r="M70" s="46"/>
       <c r="N70" s="258"/>
-      <c r="O70" s="482" t="s">
-        <v>165</v>
-      </c>
-      <c r="P70" s="465"/>
-      <c r="Q70" s="453"/>
-      <c r="R70" s="454"/>
+      <c r="O70" s="524" t="s">
+        <v>160</v>
+      </c>
+      <c r="P70" s="531"/>
+      <c r="Q70" s="455"/>
+      <c r="R70" s="456"/>
       <c r="S70" s="264"/>
       <c r="T70" s="218"/>
       <c r="U70" s="265"/>
       <c r="V70" s="266"/>
     </row>
-    <row r="71" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="71" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="122"/>
       <c r="B71" s="244"/>
       <c r="C71" s="244"/>
       <c r="D71" s="244"/>
       <c r="E71" s="244"/>
-      <c r="F71" s="473"/>
+      <c r="F71" s="502"/>
       <c r="G71" s="107"/>
       <c r="H71" s="69"/>
       <c r="I71" s="83"/>
@@ -5944,7 +5949,7 @@
       <c r="M71" s="195"/>
       <c r="N71" s="71"/>
       <c r="O71" s="70" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P71" s="75"/>
       <c r="Q71" s="128"/>
@@ -5954,13 +5959,13 @@
       <c r="U71" s="201"/>
       <c r="V71" s="52"/>
     </row>
-    <row r="72" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    <row r="72" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A72" s="133"/>
       <c r="B72" s="134"/>
       <c r="C72" s="134"/>
       <c r="D72" s="134"/>
       <c r="E72" s="134"/>
-      <c r="F72" s="468" t="s">
+      <c r="F72" s="503" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="204"/>
@@ -5973,16 +5978,16 @@
       <c r="N72" s="136"/>
       <c r="O72" s="138"/>
       <c r="P72" s="136"/>
-      <c r="Q72" s="528" t="s">
-        <v>167</v>
-      </c>
-      <c r="R72" s="529"/>
+      <c r="Q72" s="480" t="s">
+        <v>162</v>
+      </c>
+      <c r="R72" s="481"/>
       <c r="S72" s="267"/>
       <c r="T72" s="268"/>
       <c r="U72" s="269"/>
       <c r="V72" s="270"/>
     </row>
-    <row r="73" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="73" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="208"/>
       <c r="B73" s="50">
         <v>7</v>
@@ -5996,7 +6001,7 @@
       <c r="E73" s="50">
         <v>14</v>
       </c>
-      <c r="F73" s="448"/>
+      <c r="F73" s="501"/>
       <c r="G73" s="210"/>
       <c r="H73" s="76"/>
       <c r="I73" s="271"/>
@@ -6011,24 +6016,24 @@
         <v>67</v>
       </c>
       <c r="R73" s="275" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S73" s="276" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T73" s="277"/>
       <c r="U73" s="278"/>
       <c r="V73" s="279"/>
     </row>
-    <row r="74" spans="1:22" ht="10.7" customHeight="1">
+    <row r="74" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="208" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
-      <c r="F74" s="447" t="s">
+      <c r="F74" s="500" t="s">
         <v>28</v>
       </c>
       <c r="G74" s="280"/>
@@ -6041,20 +6046,20 @@
       <c r="N74" s="283"/>
       <c r="O74" s="284"/>
       <c r="P74" s="166"/>
-      <c r="Q74" s="480" t="s">
-        <v>167</v>
-      </c>
-      <c r="R74" s="481"/>
-      <c r="S74" s="524" t="s">
-        <v>170</v>
-      </c>
-      <c r="T74" s="525"/>
-      <c r="U74" s="530"/>
-      <c r="V74" s="531"/>
-    </row>
-    <row r="75" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="Q74" s="515" t="s">
+        <v>162</v>
+      </c>
+      <c r="R74" s="530"/>
+      <c r="S74" s="476" t="s">
+        <v>165</v>
+      </c>
+      <c r="T74" s="477"/>
+      <c r="U74" s="470"/>
+      <c r="V74" s="471"/>
+    </row>
+    <row r="75" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B75" s="50">
         <v>21</v>
@@ -6068,7 +6073,7 @@
       <c r="E75" s="50">
         <v>28</v>
       </c>
-      <c r="F75" s="448"/>
+      <c r="F75" s="501"/>
       <c r="G75" s="210"/>
       <c r="H75" s="76"/>
       <c r="I75" s="271"/>
@@ -6083,22 +6088,22 @@
         <v>67</v>
       </c>
       <c r="R75" s="286" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S75" s="287"/>
       <c r="T75" s="288"/>
       <c r="U75" s="289"/>
       <c r="V75" s="290"/>
     </row>
-    <row r="76" spans="1:22" ht="10.7" customHeight="1">
+    <row r="76" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B76" s="77"/>
       <c r="C76" s="77"/>
       <c r="D76" s="77"/>
       <c r="E76" s="77"/>
-      <c r="F76" s="447" t="s">
+      <c r="F76" s="500" t="s">
         <v>34</v>
       </c>
       <c r="G76" s="280"/>
@@ -6111,20 +6116,20 @@
       <c r="N76" s="166"/>
       <c r="O76" s="284"/>
       <c r="P76" s="166"/>
-      <c r="Q76" s="480" t="s">
-        <v>173</v>
-      </c>
-      <c r="R76" s="481"/>
-      <c r="S76" s="526" t="s">
-        <v>174</v>
-      </c>
-      <c r="T76" s="527"/>
-      <c r="U76" s="522"/>
-      <c r="V76" s="523"/>
-    </row>
-    <row r="77" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="Q76" s="515" t="s">
+        <v>168</v>
+      </c>
+      <c r="R76" s="530"/>
+      <c r="S76" s="478" t="s">
+        <v>169</v>
+      </c>
+      <c r="T76" s="479"/>
+      <c r="U76" s="474"/>
+      <c r="V76" s="475"/>
+    </row>
+    <row r="77" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B77" s="50"/>
       <c r="C77" s="81"/>
@@ -6132,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="E77" s="50"/>
-      <c r="F77" s="448"/>
+      <c r="F77" s="501"/>
       <c r="G77" s="210"/>
       <c r="H77" s="76"/>
       <c r="I77" s="83"/>
@@ -6144,21 +6149,21 @@
       <c r="O77" s="145"/>
       <c r="P77" s="76"/>
       <c r="Q77" s="292" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R77" s="275" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="S77" s="293" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="T77" s="294" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="U77" s="295"/>
       <c r="V77" s="296"/>
     </row>
-    <row r="78" spans="1:22" ht="10.7" customHeight="1">
+    <row r="78" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="49" t="s">
         <v>26</v>
       </c>
@@ -6166,7 +6171,7 @@
       <c r="C78" s="297"/>
       <c r="D78" s="298"/>
       <c r="E78" s="298"/>
-      <c r="F78" s="447" t="s">
+      <c r="F78" s="500" t="s">
         <v>42</v>
       </c>
       <c r="G78" s="89"/>
@@ -6180,7 +6185,7 @@
       <c r="O78" s="62"/>
       <c r="P78" s="164"/>
       <c r="Q78" s="300" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="R78" s="301"/>
       <c r="S78" s="302"/>
@@ -6188,7 +6193,7 @@
       <c r="U78" s="302"/>
       <c r="V78" s="303"/>
     </row>
-    <row r="79" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="79" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
         <v>66</v>
       </c>
@@ -6196,7 +6201,7 @@
       <c r="C79" s="304"/>
       <c r="D79" s="305"/>
       <c r="E79" s="305"/>
-      <c r="F79" s="448"/>
+      <c r="F79" s="501"/>
       <c r="G79" s="51"/>
       <c r="H79" s="55"/>
       <c r="I79" s="271"/>
@@ -6208,25 +6213,25 @@
       <c r="O79" s="54"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="292" t="s">
+        <v>170</v>
+      </c>
+      <c r="R79" s="275" t="s">
         <v>175</v>
-      </c>
-      <c r="R79" s="275" t="s">
-        <v>180</v>
       </c>
       <c r="S79" s="306"/>
       <c r="T79" s="307"/>
       <c r="U79" s="306"/>
       <c r="V79" s="307"/>
     </row>
-    <row r="80" spans="1:22" ht="10.7" customHeight="1">
+    <row r="80" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="297"/>
       <c r="C80" s="297"/>
       <c r="D80" s="298"/>
       <c r="E80" s="298"/>
-      <c r="F80" s="447" t="s">
+      <c r="F80" s="500" t="s">
         <v>51</v>
       </c>
       <c r="G80" s="280"/>
@@ -6239,20 +6244,20 @@
       <c r="N80" s="299"/>
       <c r="O80" s="284"/>
       <c r="P80" s="166"/>
-      <c r="Q80" s="459"/>
-      <c r="R80" s="479"/>
+      <c r="Q80" s="528"/>
+      <c r="R80" s="529"/>
       <c r="S80" s="278"/>
       <c r="T80" s="279"/>
       <c r="U80" s="278"/>
       <c r="V80" s="279"/>
     </row>
-    <row r="81" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="81" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
       <c r="B81" s="304"/>
       <c r="C81" s="304"/>
       <c r="D81" s="305"/>
       <c r="E81" s="305"/>
-      <c r="F81" s="448"/>
+      <c r="F81" s="501"/>
       <c r="G81" s="210"/>
       <c r="H81" s="143"/>
       <c r="I81" s="83"/>
@@ -6270,13 +6275,13 @@
       <c r="U81" s="278"/>
       <c r="V81" s="279"/>
     </row>
-    <row r="82" spans="1:22" ht="10.7" customHeight="1">
+    <row r="82" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49"/>
       <c r="B82" s="298"/>
       <c r="C82" s="298"/>
       <c r="D82" s="298"/>
       <c r="E82" s="298"/>
-      <c r="F82" s="447" t="s">
+      <c r="F82" s="500" t="s">
         <v>57</v>
       </c>
       <c r="G82" s="280"/>
@@ -6296,13 +6301,13 @@
       <c r="U82" s="308"/>
       <c r="V82" s="154"/>
     </row>
-    <row r="83" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="83" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="122"/>
       <c r="B83" s="304"/>
       <c r="C83" s="304"/>
       <c r="D83" s="304"/>
       <c r="E83" s="304"/>
-      <c r="F83" s="473"/>
+      <c r="F83" s="502"/>
       <c r="G83" s="310"/>
       <c r="H83" s="311"/>
       <c r="I83" s="312"/>
@@ -6320,7 +6325,7 @@
       <c r="U83" s="313"/>
       <c r="V83" s="314"/>
     </row>
-    <row r="84" spans="1:22" s="34" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="84" spans="1:22" s="34" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -6332,7 +6337,7 @@
       <c r="I84" s="317"/>
       <c r="J84" s="318"/>
       <c r="K84" s="319" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L84" s="318"/>
       <c r="M84" s="319"/>
@@ -6346,7 +6351,7 @@
       <c r="U84" s="315"/>
       <c r="V84" s="320"/>
     </row>
-    <row r="85" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    <row r="85" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A85" s="133" t="s">
         <v>23</v>
       </c>
@@ -6354,7 +6359,7 @@
       <c r="C85" s="321"/>
       <c r="D85" s="321"/>
       <c r="E85" s="321"/>
-      <c r="F85" s="468" t="s">
+      <c r="F85" s="503" t="s">
         <v>24</v>
       </c>
       <c r="G85" s="113"/>
@@ -6374,7 +6379,7 @@
       <c r="U85" s="44"/>
       <c r="V85" s="141"/>
     </row>
-    <row r="86" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="86" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
         <v>26</v>
       </c>
@@ -6390,7 +6395,7 @@
       <c r="E86" s="50">
         <v>2</v>
       </c>
-      <c r="F86" s="448"/>
+      <c r="F86" s="501"/>
       <c r="G86" s="107"/>
       <c r="H86" s="69"/>
       <c r="I86" s="83"/>
@@ -6408,7 +6413,7 @@
       <c r="U86" s="211"/>
       <c r="V86" s="58"/>
     </row>
-    <row r="87" spans="1:22" ht="10.7" customHeight="1">
+    <row r="87" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="49" t="s">
         <v>27</v>
       </c>
@@ -6416,13 +6421,13 @@
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
-      <c r="F87" s="447" t="s">
+      <c r="F87" s="500" t="s">
         <v>28</v>
       </c>
-      <c r="G87" s="449" t="s">
+      <c r="G87" s="485" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="450"/>
+      <c r="H87" s="448"/>
       <c r="I87" s="165"/>
       <c r="J87" s="323"/>
       <c r="K87" s="62"/>
@@ -6438,7 +6443,7 @@
       <c r="U87" s="46"/>
       <c r="V87" s="47"/>
     </row>
-    <row r="88" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="88" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="s">
         <v>30</v>
       </c>
@@ -6454,12 +6459,12 @@
       <c r="E88" s="50">
         <v>16</v>
       </c>
-      <c r="F88" s="448"/>
+      <c r="F88" s="501"/>
       <c r="G88" s="156" t="s">
         <v>67</v>
       </c>
       <c r="H88" s="69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I88" s="231"/>
       <c r="J88" s="188"/>
@@ -6476,7 +6481,7 @@
       <c r="U88" s="75"/>
       <c r="V88" s="58"/>
     </row>
-    <row r="89" spans="1:22" ht="10.7" customHeight="1">
+    <row r="89" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="49" t="s">
         <v>33</v>
       </c>
@@ -6484,33 +6489,33 @@
       <c r="C89" s="77"/>
       <c r="D89" s="77"/>
       <c r="E89" s="77"/>
-      <c r="F89" s="447" t="s">
+      <c r="F89" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G89" s="449" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="450"/>
-      <c r="I89" s="461" t="s">
+      <c r="G89" s="485" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="448"/>
+      <c r="I89" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="J89" s="450"/>
+      <c r="J89" s="448"/>
       <c r="K89" s="62"/>
       <c r="L89" s="46"/>
       <c r="M89" s="62"/>
       <c r="N89" s="258"/>
       <c r="O89" s="62"/>
       <c r="P89" s="61"/>
-      <c r="Q89" s="461" t="s">
-        <v>182</v>
-      </c>
-      <c r="R89" s="478"/>
+      <c r="Q89" s="447" t="s">
+        <v>177</v>
+      </c>
+      <c r="R89" s="467"/>
       <c r="S89" s="62"/>
       <c r="T89" s="61"/>
       <c r="U89" s="46"/>
       <c r="V89" s="257"/>
     </row>
-    <row r="90" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="90" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49" t="s">
         <v>30</v>
       </c>
@@ -6520,18 +6525,18 @@
       <c r="E90" s="50">
         <v>30</v>
       </c>
-      <c r="F90" s="448"/>
+      <c r="F90" s="501"/>
       <c r="G90" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H90" s="69" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I90" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J90" s="71" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K90" s="72"/>
       <c r="L90" s="259"/>
@@ -6546,7 +6551,7 @@
       <c r="U90" s="75"/>
       <c r="V90" s="58"/>
     </row>
-    <row r="91" spans="1:22" ht="10.7" customHeight="1">
+    <row r="91" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="49" t="s">
         <v>41</v>
       </c>
@@ -6554,17 +6559,17 @@
       <c r="C91" s="77"/>
       <c r="D91" s="77"/>
       <c r="E91" s="77"/>
-      <c r="F91" s="447" t="s">
+      <c r="F91" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G91" s="449" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" s="450"/>
-      <c r="I91" s="461" t="s">
+      <c r="G91" s="485" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" s="448"/>
+      <c r="I91" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="J91" s="450"/>
+      <c r="J91" s="448"/>
       <c r="K91" s="62"/>
       <c r="L91" s="46"/>
       <c r="M91" s="62"/>
@@ -6578,7 +6583,7 @@
       <c r="U91" s="46"/>
       <c r="V91" s="257"/>
     </row>
-    <row r="92" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="92" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
         <v>45</v>
       </c>
@@ -6586,18 +6591,18 @@
       <c r="C92" s="82"/>
       <c r="D92" s="82"/>
       <c r="E92" s="82"/>
-      <c r="F92" s="448"/>
+      <c r="F92" s="501"/>
       <c r="G92" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H92" s="69" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I92" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J92" s="71" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K92" s="70"/>
       <c r="L92" s="171"/>
@@ -6606,17 +6611,17 @@
       <c r="O92" s="97"/>
       <c r="P92" s="157"/>
       <c r="Q92" s="57" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="R92" s="58" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="S92" s="97"/>
       <c r="T92" s="157"/>
       <c r="U92" s="179"/>
       <c r="V92" s="58"/>
     </row>
-    <row r="93" spans="1:22" ht="10.7" customHeight="1">
+    <row r="93" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="49" t="s">
         <v>27</v>
       </c>
@@ -6624,29 +6629,29 @@
       <c r="C93" s="77"/>
       <c r="D93" s="77"/>
       <c r="E93" s="77"/>
-      <c r="F93" s="447" t="s">
+      <c r="F93" s="500" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="449"/>
-      <c r="H93" s="450"/>
-      <c r="I93" s="461" t="s">
+      <c r="G93" s="485"/>
+      <c r="H93" s="448"/>
+      <c r="I93" s="447" t="s">
         <v>29</v>
       </c>
-      <c r="J93" s="450"/>
+      <c r="J93" s="448"/>
       <c r="K93" s="62"/>
       <c r="L93" s="46"/>
       <c r="M93" s="62"/>
       <c r="N93" s="258"/>
       <c r="O93" s="62"/>
       <c r="P93" s="66"/>
-      <c r="Q93" s="461"/>
-      <c r="R93" s="478"/>
+      <c r="Q93" s="447"/>
+      <c r="R93" s="467"/>
       <c r="S93" s="62"/>
       <c r="T93" s="66"/>
-      <c r="U93" s="485"/>
-      <c r="V93" s="486"/>
-    </row>
-    <row r="94" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U93" s="468"/>
+      <c r="V93" s="469"/>
+    </row>
+    <row r="94" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
         <v>52</v>
       </c>
@@ -6654,7 +6659,7 @@
       <c r="C94" s="82"/>
       <c r="D94" s="82"/>
       <c r="E94" s="82"/>
-      <c r="F94" s="448"/>
+      <c r="F94" s="501"/>
       <c r="G94" s="68"/>
       <c r="H94" s="69"/>
       <c r="I94" s="70" t="s">
@@ -6676,7 +6681,7 @@
       <c r="U94" s="57"/>
       <c r="V94" s="100"/>
     </row>
-    <row r="95" spans="1:22" ht="10.7" customHeight="1">
+    <row r="95" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="49" t="s">
         <v>56</v>
       </c>
@@ -6684,15 +6689,15 @@
       <c r="C95" s="77"/>
       <c r="D95" s="77"/>
       <c r="E95" s="77"/>
-      <c r="F95" s="447" t="s">
+      <c r="F95" s="500" t="s">
         <v>57</v>
       </c>
       <c r="G95" s="89"/>
       <c r="H95" s="66"/>
-      <c r="I95" s="453" t="s">
-        <v>142</v>
-      </c>
-      <c r="J95" s="472"/>
+      <c r="I95" s="455" t="s">
+        <v>139</v>
+      </c>
+      <c r="J95" s="459"/>
       <c r="K95" s="329"/>
       <c r="L95" s="175"/>
       <c r="M95" s="329"/>
@@ -6703,23 +6708,23 @@
       <c r="R95" s="327"/>
       <c r="S95" s="330"/>
       <c r="T95" s="331"/>
-      <c r="U95" s="485"/>
-      <c r="V95" s="486"/>
-    </row>
-    <row r="96" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U95" s="468"/>
+      <c r="V95" s="469"/>
+    </row>
+    <row r="96" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="122"/>
       <c r="B96" s="244"/>
       <c r="C96" s="244"/>
       <c r="D96" s="244"/>
       <c r="E96" s="244"/>
-      <c r="F96" s="473"/>
+      <c r="F96" s="502"/>
       <c r="G96" s="68"/>
       <c r="H96" s="69"/>
       <c r="I96" s="247" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J96" s="246" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K96" s="332"/>
       <c r="L96" s="201"/>
@@ -6734,13 +6739,13 @@
       <c r="U96" s="248"/>
       <c r="V96" s="100"/>
     </row>
-    <row r="97" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" thickTop="1">
+    <row r="97" spans="1:22" s="34" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A97" s="133"/>
       <c r="B97" s="322"/>
       <c r="C97" s="322"/>
       <c r="D97" s="322"/>
       <c r="E97" s="322"/>
-      <c r="F97" s="468" t="s">
+      <c r="F97" s="503" t="s">
         <v>24</v>
       </c>
       <c r="G97" s="333"/>
@@ -6760,7 +6765,7 @@
       <c r="U97" s="234"/>
       <c r="V97" s="336"/>
     </row>
-    <row r="98" spans="1:22" s="48" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+    <row r="98" spans="1:22" s="48" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="142"/>
       <c r="B98" s="50">
         <v>10</v>
@@ -6774,7 +6779,7 @@
       <c r="E98" s="50">
         <v>3</v>
       </c>
-      <c r="F98" s="448"/>
+      <c r="F98" s="501"/>
       <c r="G98" s="337"/>
       <c r="H98" s="338"/>
       <c r="I98" s="231"/>
@@ -6792,7 +6797,7 @@
       <c r="U98" s="339"/>
       <c r="V98" s="340"/>
     </row>
-    <row r="99" spans="1:22" ht="10.7" customHeight="1">
+    <row r="99" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="49" t="s">
         <v>62</v>
       </c>
@@ -6800,13 +6805,13 @@
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
       <c r="E99" s="37"/>
-      <c r="F99" s="447" t="s">
+      <c r="F99" s="500" t="s">
         <v>28</v>
       </c>
-      <c r="G99" s="507" t="s">
-        <v>108</v>
-      </c>
-      <c r="H99" s="472"/>
+      <c r="G99" s="490" t="s">
+        <v>107</v>
+      </c>
+      <c r="H99" s="459"/>
       <c r="I99" s="341"/>
       <c r="J99" s="166"/>
       <c r="K99" s="62"/>
@@ -6822,7 +6827,7 @@
       <c r="U99" s="62"/>
       <c r="V99" s="257"/>
     </row>
-    <row r="100" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="100" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49" t="s">
         <v>66</v>
       </c>
@@ -6838,12 +6843,12 @@
       <c r="E100" s="50">
         <v>17</v>
       </c>
-      <c r="F100" s="448"/>
+      <c r="F100" s="501"/>
       <c r="G100" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H100" s="69" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I100" s="145"/>
       <c r="J100" s="342"/>
@@ -6860,7 +6865,7 @@
       <c r="U100" s="72"/>
       <c r="V100" s="181"/>
     </row>
-    <row r="101" spans="1:22" ht="10.7" customHeight="1">
+    <row r="101" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="49" t="s">
         <v>26</v>
       </c>
@@ -6868,23 +6873,23 @@
       <c r="C101" s="77"/>
       <c r="D101" s="77"/>
       <c r="E101" s="77"/>
-      <c r="F101" s="447" t="s">
+      <c r="F101" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G101" s="507" t="s">
+      <c r="G101" s="490" t="s">
+        <v>107</v>
+      </c>
+      <c r="H101" s="459"/>
+      <c r="I101" s="447" t="s">
+        <v>184</v>
+      </c>
+      <c r="J101" s="448"/>
+      <c r="K101" s="447" t="s">
         <v>108</v>
       </c>
-      <c r="H101" s="472"/>
-      <c r="I101" s="461" t="s">
-        <v>188</v>
-      </c>
-      <c r="J101" s="450"/>
-      <c r="K101" s="461" t="s">
-        <v>109</v>
-      </c>
-      <c r="L101" s="476"/>
-      <c r="M101" s="476"/>
-      <c r="N101" s="450"/>
+      <c r="L101" s="449"/>
+      <c r="M101" s="449"/>
+      <c r="N101" s="448"/>
       <c r="O101" s="149"/>
       <c r="P101" s="61"/>
       <c r="Q101" s="62"/>
@@ -6894,9 +6899,9 @@
       <c r="U101" s="62"/>
       <c r="V101" s="257"/>
     </row>
-    <row r="102" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="102" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" s="134"/>
       <c r="C102" s="134"/>
@@ -6904,24 +6909,24 @@
       <c r="E102" s="134">
         <v>31</v>
       </c>
-      <c r="F102" s="448"/>
+      <c r="F102" s="501"/>
       <c r="G102" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H102" s="69" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I102" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J102" s="71" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K102" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="L102" s="501"/>
-      <c r="M102" s="501"/>
+        <v>183</v>
+      </c>
+      <c r="L102" s="465"/>
+      <c r="M102" s="465"/>
       <c r="N102" s="71" t="s">
         <v>54</v>
       </c>
@@ -6934,7 +6939,7 @@
       <c r="U102" s="231"/>
       <c r="V102" s="344"/>
     </row>
-    <row r="103" spans="1:22" ht="10.7" customHeight="1">
+    <row r="103" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="49" t="s">
         <v>27</v>
       </c>
@@ -6942,35 +6947,35 @@
       <c r="C103" s="77"/>
       <c r="D103" s="77"/>
       <c r="E103" s="77"/>
-      <c r="F103" s="447" t="s">
+      <c r="F103" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="507" t="s">
+      <c r="G103" s="490" t="s">
+        <v>107</v>
+      </c>
+      <c r="H103" s="506"/>
+      <c r="I103" s="345" t="s">
+        <v>147</v>
+      </c>
+      <c r="J103" s="346" t="s">
+        <v>184</v>
+      </c>
+      <c r="K103" s="447" t="s">
         <v>108</v>
       </c>
-      <c r="H103" s="498"/>
-      <c r="I103" s="345" t="s">
-        <v>150</v>
-      </c>
-      <c r="J103" s="346" t="s">
-        <v>191</v>
-      </c>
-      <c r="K103" s="461" t="s">
-        <v>109</v>
-      </c>
-      <c r="L103" s="476"/>
-      <c r="M103" s="476"/>
-      <c r="N103" s="450"/>
+      <c r="L103" s="449"/>
+      <c r="M103" s="449"/>
+      <c r="N103" s="448"/>
       <c r="O103" s="149"/>
       <c r="P103" s="61"/>
       <c r="Q103" s="347"/>
       <c r="R103" s="266"/>
-      <c r="S103" s="484"/>
-      <c r="T103" s="450"/>
+      <c r="S103" s="454"/>
+      <c r="T103" s="448"/>
       <c r="U103" s="347"/>
       <c r="V103" s="266"/>
     </row>
-    <row r="104" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="104" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49" t="s">
         <v>52</v>
       </c>
@@ -6978,29 +6983,29 @@
       <c r="C104" s="82"/>
       <c r="D104" s="82"/>
       <c r="E104" s="82"/>
-      <c r="F104" s="448"/>
+      <c r="F104" s="501"/>
       <c r="G104" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H104" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="I104" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="I104" s="348" t="s">
-        <v>192</v>
-      </c>
       <c r="J104" s="348" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K104" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="L104" s="501"/>
-      <c r="M104" s="501"/>
+        <v>183</v>
+      </c>
+      <c r="L104" s="465"/>
+      <c r="M104" s="465"/>
       <c r="N104" s="71" t="s">
         <v>54</v>
       </c>
       <c r="O104" s="179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P104" s="71"/>
       <c r="Q104" s="72"/>
@@ -7010,7 +7015,7 @@
       <c r="U104" s="72"/>
       <c r="V104" s="344"/>
     </row>
-    <row r="105" spans="1:22" ht="10.7" customHeight="1">
+    <row r="105" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="49" t="s">
         <v>56</v>
       </c>
@@ -7018,199 +7023,199 @@
       <c r="C105" s="77"/>
       <c r="D105" s="77"/>
       <c r="E105" s="77"/>
-      <c r="F105" s="447" t="s">
+      <c r="F105" s="500" t="s">
         <v>51</v>
       </c>
-      <c r="G105" s="449"/>
-      <c r="H105" s="476"/>
+      <c r="G105" s="485"/>
+      <c r="H105" s="449"/>
       <c r="I105" s="349" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J105" s="350" t="s">
-        <v>195</v>
-      </c>
-      <c r="K105" s="461" t="s">
-        <v>100</v>
-      </c>
-      <c r="L105" s="450"/>
-      <c r="M105" s="461" t="s">
-        <v>109</v>
-      </c>
-      <c r="N105" s="450"/>
-      <c r="O105" s="461" t="s">
-        <v>196</v>
-      </c>
-      <c r="P105" s="450"/>
+        <v>188</v>
+      </c>
+      <c r="K105" s="447" t="s">
+        <v>99</v>
+      </c>
+      <c r="L105" s="448"/>
+      <c r="M105" s="447" t="s">
+        <v>108</v>
+      </c>
+      <c r="N105" s="448"/>
+      <c r="O105" s="447" t="s">
+        <v>189</v>
+      </c>
+      <c r="P105" s="448"/>
       <c r="Q105" s="153"/>
       <c r="R105" s="154"/>
-      <c r="S105" s="484" t="s">
-        <v>197</v>
-      </c>
-      <c r="T105" s="476"/>
-      <c r="U105" s="453" t="s">
-        <v>198</v>
-      </c>
-      <c r="V105" s="454"/>
-    </row>
-    <row r="106" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="S105" s="454" t="s">
+        <v>190</v>
+      </c>
+      <c r="T105" s="449"/>
+      <c r="U105" s="455" t="s">
+        <v>191</v>
+      </c>
+      <c r="V105" s="456"/>
+    </row>
+    <row r="106" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49"/>
       <c r="B106" s="82"/>
       <c r="C106" s="82"/>
       <c r="D106" s="82"/>
       <c r="E106" s="82"/>
-      <c r="F106" s="448"/>
+      <c r="F106" s="501"/>
       <c r="G106" s="107"/>
       <c r="H106" s="171"/>
       <c r="I106" s="351" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J106" s="352" t="s">
         <v>37</v>
       </c>
       <c r="K106" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L106" s="71" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M106" s="72" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N106" s="71" t="s">
         <v>59</v>
       </c>
       <c r="O106" s="70" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P106" s="71" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q106" s="353"/>
       <c r="R106" s="354"/>
       <c r="S106" s="72" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="T106" s="171" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="U106" s="72" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="V106" s="86" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="10.7" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="49"/>
       <c r="B107" s="77"/>
       <c r="C107" s="77"/>
       <c r="D107" s="77"/>
       <c r="E107" s="77"/>
-      <c r="F107" s="447" t="s">
+      <c r="F107" s="500" t="s">
         <v>57</v>
       </c>
-      <c r="G107" s="449"/>
-      <c r="H107" s="450"/>
-      <c r="I107" s="476" t="s">
-        <v>150</v>
-      </c>
-      <c r="J107" s="450"/>
-      <c r="K107" s="461" t="s">
-        <v>109</v>
-      </c>
-      <c r="L107" s="450"/>
-      <c r="M107" s="461" t="s">
-        <v>100</v>
-      </c>
-      <c r="N107" s="450"/>
-      <c r="O107" s="461" t="s">
-        <v>205</v>
-      </c>
-      <c r="P107" s="450"/>
+      <c r="G107" s="485"/>
+      <c r="H107" s="448"/>
+      <c r="I107" s="449" t="s">
+        <v>147</v>
+      </c>
+      <c r="J107" s="448"/>
+      <c r="K107" s="447" t="s">
+        <v>108</v>
+      </c>
+      <c r="L107" s="448"/>
+      <c r="M107" s="447" t="s">
+        <v>99</v>
+      </c>
+      <c r="N107" s="448"/>
+      <c r="O107" s="447" t="s">
+        <v>198</v>
+      </c>
+      <c r="P107" s="448"/>
       <c r="Q107" s="62"/>
       <c r="R107" s="257"/>
-      <c r="S107" s="484" t="s">
-        <v>206</v>
-      </c>
-      <c r="T107" s="476"/>
-      <c r="U107" s="476"/>
-      <c r="V107" s="478"/>
-    </row>
-    <row r="108" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="S107" s="454" t="s">
+        <v>199</v>
+      </c>
+      <c r="T107" s="449"/>
+      <c r="U107" s="449"/>
+      <c r="V107" s="467"/>
+    </row>
+    <row r="108" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="122"/>
       <c r="B108" s="244"/>
       <c r="C108" s="244"/>
       <c r="D108" s="244"/>
       <c r="E108" s="244"/>
-      <c r="F108" s="473"/>
+      <c r="F108" s="502"/>
       <c r="G108" s="107"/>
       <c r="H108" s="69"/>
       <c r="I108" s="215" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J108" s="71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K108" s="248" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L108" s="246" t="s">
         <v>59</v>
       </c>
       <c r="M108" s="128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N108" s="246" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O108" s="128" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P108" s="246" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q108" s="355"/>
       <c r="R108" s="202"/>
       <c r="S108" s="128" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="T108" s="356"/>
       <c r="U108" s="356" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="V108" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A109" s="133"/>
       <c r="B109" s="322"/>
       <c r="C109" s="322"/>
       <c r="D109" s="322"/>
       <c r="E109" s="322"/>
-      <c r="F109" s="468" t="s">
+      <c r="F109" s="503" t="s">
         <v>24</v>
       </c>
       <c r="G109" s="357"/>
       <c r="H109" s="136"/>
-      <c r="I109" s="457"/>
-      <c r="J109" s="458"/>
+      <c r="I109" s="450"/>
+      <c r="J109" s="451"/>
       <c r="K109" s="116"/>
       <c r="L109" s="55"/>
       <c r="M109" s="252"/>
       <c r="N109" s="253"/>
       <c r="O109" s="252"/>
       <c r="P109" s="96"/>
-      <c r="Q109" s="461"/>
-      <c r="R109" s="478"/>
+      <c r="Q109" s="447"/>
+      <c r="R109" s="467"/>
       <c r="S109" s="252"/>
       <c r="T109" s="96"/>
       <c r="U109" s="254"/>
       <c r="V109" s="325"/>
     </row>
-    <row r="110" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="110" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="208" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" s="50">
         <v>11</v>
@@ -7224,7 +7229,7 @@
       <c r="E110" s="50">
         <v>4</v>
       </c>
-      <c r="F110" s="448"/>
+      <c r="F110" s="501"/>
       <c r="G110" s="107"/>
       <c r="H110" s="69"/>
       <c r="I110" s="358"/>
@@ -7242,13 +7247,13 @@
       <c r="U110" s="75"/>
       <c r="V110" s="58"/>
     </row>
-    <row r="111" spans="1:22" ht="10.7" customHeight="1">
+    <row r="111" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="49"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
       <c r="E111" s="37"/>
-      <c r="F111" s="447" t="s">
+      <c r="F111" s="500" t="s">
         <v>28</v>
       </c>
       <c r="G111" s="113"/>
@@ -7268,9 +7273,9 @@
       <c r="U111" s="163"/>
       <c r="V111" s="257"/>
     </row>
-    <row r="112" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="112" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" s="50">
         <v>25</v>
@@ -7284,7 +7289,7 @@
       <c r="E112" s="50">
         <v>18</v>
       </c>
-      <c r="F112" s="448"/>
+      <c r="F112" s="501"/>
       <c r="G112" s="107"/>
       <c r="H112" s="69"/>
       <c r="I112" s="83"/>
@@ -7302,36 +7307,36 @@
       <c r="U112" s="57"/>
       <c r="V112" s="100"/>
     </row>
-    <row r="113" spans="1:23" ht="10.7" customHeight="1">
+    <row r="113" spans="1:23" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="49"/>
       <c r="B113" s="77"/>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
       <c r="E113" s="77"/>
-      <c r="F113" s="447" t="s">
+      <c r="F113" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G113" s="449"/>
-      <c r="H113" s="450"/>
-      <c r="I113" s="535" t="s">
-        <v>155</v>
-      </c>
-      <c r="J113" s="536"/>
+      <c r="G113" s="485"/>
+      <c r="H113" s="448"/>
+      <c r="I113" s="452" t="s">
+        <v>152</v>
+      </c>
+      <c r="J113" s="453"/>
       <c r="K113" s="62"/>
       <c r="L113" s="61"/>
       <c r="M113" s="46"/>
       <c r="N113" s="60"/>
-      <c r="O113" s="461"/>
-      <c r="P113" s="450"/>
-      <c r="Q113" s="461"/>
-      <c r="R113" s="478"/>
+      <c r="O113" s="447"/>
+      <c r="P113" s="448"/>
+      <c r="Q113" s="447"/>
+      <c r="R113" s="467"/>
       <c r="S113" s="149"/>
       <c r="T113" s="164"/>
       <c r="U113" s="359"/>
       <c r="V113" s="360"/>
       <c r="W113" s="361"/>
     </row>
-    <row r="114" spans="1:23" s="34" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+    <row r="114" spans="1:23" s="34" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49" t="s">
         <v>30</v>
       </c>
@@ -7339,11 +7344,11 @@
       <c r="C114" s="362"/>
       <c r="D114" s="134"/>
       <c r="E114" s="134"/>
-      <c r="F114" s="448"/>
+      <c r="F114" s="501"/>
       <c r="G114" s="156"/>
       <c r="H114" s="69"/>
       <c r="I114" s="363" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J114" s="364"/>
       <c r="K114" s="83"/>
@@ -7356,22 +7361,22 @@
       <c r="R114" s="181"/>
       <c r="S114" s="72"/>
       <c r="T114" s="69"/>
-      <c r="U114" s="533"/>
-      <c r="V114" s="534"/>
-    </row>
-    <row r="115" spans="1:23" ht="10.7" customHeight="1">
+      <c r="U114" s="472"/>
+      <c r="V114" s="473"/>
+    </row>
+    <row r="115" spans="1:23" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="49"/>
       <c r="B115" s="77"/>
       <c r="C115" s="77"/>
       <c r="D115" s="77"/>
       <c r="E115" s="77"/>
-      <c r="F115" s="447" t="s">
+      <c r="F115" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G115" s="449" t="s">
-        <v>93</v>
-      </c>
-      <c r="H115" s="476"/>
+      <c r="G115" s="485" t="s">
+        <v>92</v>
+      </c>
+      <c r="H115" s="449"/>
       <c r="I115" s="365"/>
       <c r="J115" s="366"/>
       <c r="K115" s="62"/>
@@ -7381,17 +7386,17 @@
       <c r="O115" s="240"/>
       <c r="P115" s="152"/>
       <c r="Q115" s="367" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="R115" s="368" t="s">
-        <v>211</v>
-      </c>
-      <c r="S115" s="484"/>
-      <c r="T115" s="450"/>
+        <v>204</v>
+      </c>
+      <c r="S115" s="454"/>
+      <c r="T115" s="448"/>
       <c r="U115" s="219"/>
       <c r="V115" s="154"/>
     </row>
-    <row r="116" spans="1:23" ht="10.7" customHeight="1" thickBot="1">
+    <row r="116" spans="1:23" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49" t="s">
         <v>33</v>
       </c>
@@ -7399,18 +7404,18 @@
       <c r="C116" s="82"/>
       <c r="D116" s="82"/>
       <c r="E116" s="82"/>
-      <c r="F116" s="448"/>
+      <c r="F116" s="501"/>
       <c r="G116" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H116" s="171" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I116" s="363" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J116" s="364" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K116" s="83"/>
       <c r="L116" s="69"/>
@@ -7419,31 +7424,31 @@
       <c r="O116" s="97"/>
       <c r="P116" s="157"/>
       <c r="Q116" s="369" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="R116" s="370" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="S116" s="328"/>
       <c r="T116" s="69"/>
       <c r="U116" s="72"/>
       <c r="V116" s="100"/>
     </row>
-    <row r="117" spans="1:23" ht="10.7" customHeight="1">
+    <row r="117" spans="1:23" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="49"/>
       <c r="B117" s="77"/>
       <c r="C117" s="77"/>
       <c r="D117" s="77"/>
       <c r="E117" s="77"/>
-      <c r="F117" s="447" t="s">
+      <c r="F117" s="500" t="s">
         <v>51</v>
       </c>
-      <c r="G117" s="449" t="s">
-        <v>93</v>
-      </c>
-      <c r="H117" s="450"/>
-      <c r="I117" s="496"/>
-      <c r="J117" s="497"/>
+      <c r="G117" s="485" t="s">
+        <v>92</v>
+      </c>
+      <c r="H117" s="448"/>
+      <c r="I117" s="495"/>
+      <c r="J117" s="496"/>
       <c r="K117" s="149"/>
       <c r="L117" s="61"/>
       <c r="M117" s="62"/>
@@ -7451,30 +7456,30 @@
       <c r="O117" s="190"/>
       <c r="P117" s="61"/>
       <c r="Q117" s="372" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="R117" s="373" t="s">
-        <v>215</v>
-      </c>
-      <c r="S117" s="484"/>
-      <c r="T117" s="450"/>
+        <v>208</v>
+      </c>
+      <c r="S117" s="454"/>
+      <c r="T117" s="448"/>
       <c r="U117" s="105"/>
       <c r="V117" s="106"/>
     </row>
-    <row r="118" spans="1:23" ht="10.7" customHeight="1" thickBot="1">
+    <row r="118" spans="1:23" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B118" s="82"/>
       <c r="C118" s="82"/>
       <c r="D118" s="82"/>
       <c r="E118" s="82"/>
-      <c r="F118" s="448"/>
+      <c r="F118" s="501"/>
       <c r="G118" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H118" s="69" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I118" s="374"/>
       <c r="J118" s="375"/>
@@ -7488,26 +7493,26 @@
         <v>60</v>
       </c>
       <c r="R118" s="377" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="S118" s="72"/>
       <c r="T118" s="171"/>
       <c r="U118" s="111"/>
       <c r="V118" s="112"/>
     </row>
-    <row r="119" spans="1:23" ht="10.7" customHeight="1">
+    <row r="119" spans="1:23" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="49"/>
       <c r="B119" s="77"/>
       <c r="C119" s="77"/>
       <c r="D119" s="77"/>
       <c r="E119" s="77"/>
-      <c r="F119" s="447" t="s">
+      <c r="F119" s="500" t="s">
         <v>57</v>
       </c>
-      <c r="G119" s="513" t="s">
+      <c r="G119" s="507" t="s">
         <v>29</v>
       </c>
-      <c r="H119" s="505"/>
+      <c r="H119" s="508"/>
       <c r="I119" s="378"/>
       <c r="J119" s="114"/>
       <c r="K119" s="190"/>
@@ -7516,27 +7521,27 @@
       <c r="N119" s="371"/>
       <c r="O119" s="149"/>
       <c r="P119" s="379"/>
-      <c r="Q119" s="453" t="s">
-        <v>44</v>
-      </c>
-      <c r="R119" s="454"/>
-      <c r="S119" s="484"/>
-      <c r="T119" s="476"/>
+      <c r="Q119" s="455" t="s">
+        <v>266</v>
+      </c>
+      <c r="R119" s="456"/>
+      <c r="S119" s="454"/>
+      <c r="T119" s="449"/>
       <c r="U119" s="120"/>
       <c r="V119" s="121"/>
     </row>
-    <row r="120" spans="1:23" ht="10.7" customHeight="1" thickBot="1">
+    <row r="120" spans="1:23" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="122"/>
       <c r="B120" s="244"/>
       <c r="C120" s="244"/>
       <c r="D120" s="244"/>
       <c r="E120" s="244"/>
-      <c r="F120" s="473"/>
+      <c r="F120" s="502"/>
       <c r="G120" s="380" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H120" s="381" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I120" s="382"/>
       <c r="J120" s="383"/>
@@ -7550,40 +7555,40 @@
         <v>49</v>
       </c>
       <c r="R120" s="86" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="S120" s="72"/>
       <c r="T120" s="171"/>
       <c r="U120" s="131"/>
       <c r="V120" s="132"/>
     </row>
-    <row r="121" spans="1:23" ht="10.7" customHeight="1" thickTop="1">
+    <row r="121" spans="1:23" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A121" s="133"/>
       <c r="B121" s="134"/>
       <c r="C121" s="134"/>
       <c r="D121" s="134"/>
       <c r="E121" s="134"/>
-      <c r="F121" s="468" t="s">
+      <c r="F121" s="503" t="s">
         <v>24</v>
       </c>
-      <c r="G121" s="474"/>
-      <c r="H121" s="475"/>
+      <c r="G121" s="511"/>
+      <c r="H121" s="463"/>
       <c r="I121" s="41"/>
       <c r="J121" s="136"/>
       <c r="K121" s="41"/>
       <c r="L121" s="386"/>
       <c r="M121" s="387"/>
       <c r="N121" s="386"/>
-      <c r="O121" s="532"/>
-      <c r="P121" s="475"/>
-      <c r="Q121" s="494"/>
-      <c r="R121" s="495"/>
+      <c r="O121" s="462"/>
+      <c r="P121" s="463"/>
+      <c r="Q121" s="460"/>
+      <c r="R121" s="461"/>
       <c r="S121" s="388"/>
       <c r="T121" s="389"/>
-      <c r="U121" s="532"/>
-      <c r="V121" s="495"/>
-    </row>
-    <row r="122" spans="1:23" s="34" customFormat="1" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U121" s="462"/>
+      <c r="V121" s="461"/>
+    </row>
+    <row r="122" spans="1:23" s="34" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="208"/>
       <c r="B122" s="50">
         <v>12</v>
@@ -7597,7 +7602,7 @@
       <c r="E122" s="50">
         <v>5</v>
       </c>
-      <c r="F122" s="448"/>
+      <c r="F122" s="501"/>
       <c r="G122" s="156"/>
       <c r="H122" s="218"/>
       <c r="I122" s="54"/>
@@ -7615,15 +7620,15 @@
       <c r="U122" s="130"/>
       <c r="V122" s="148"/>
     </row>
-    <row r="123" spans="1:23" ht="10.7" customHeight="1">
+    <row r="123" spans="1:23" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="208" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
-      <c r="F123" s="447" t="s">
+      <c r="F123" s="500" t="s">
         <v>28</v>
       </c>
       <c r="G123" s="89"/>
@@ -7636,14 +7641,14 @@
       <c r="N123" s="63"/>
       <c r="O123" s="62"/>
       <c r="P123" s="61"/>
-      <c r="Q123" s="461"/>
-      <c r="R123" s="478"/>
+      <c r="Q123" s="447"/>
+      <c r="R123" s="467"/>
       <c r="S123" s="392"/>
       <c r="T123" s="78"/>
       <c r="U123" s="62"/>
       <c r="V123" s="47"/>
     </row>
-    <row r="124" spans="1:23" ht="10.7" customHeight="1" thickBot="1">
+    <row r="124" spans="1:23" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49" t="s">
         <v>30</v>
       </c>
@@ -7659,9 +7664,9 @@
       <c r="E124" s="50">
         <v>19</v>
       </c>
-      <c r="F124" s="448"/>
-      <c r="G124" s="514"/>
-      <c r="H124" s="515"/>
+      <c r="F124" s="501"/>
+      <c r="G124" s="509"/>
+      <c r="H124" s="510"/>
       <c r="I124" s="393"/>
       <c r="J124" s="394"/>
       <c r="K124" s="72"/>
@@ -7677,7 +7682,7 @@
       <c r="U124" s="70"/>
       <c r="V124" s="58"/>
     </row>
-    <row r="125" spans="1:23" ht="10.7" customHeight="1">
+    <row r="125" spans="1:23" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="49" t="s">
         <v>66</v>
       </c>
@@ -7685,29 +7690,29 @@
       <c r="C125" s="77"/>
       <c r="D125" s="77"/>
       <c r="E125" s="77"/>
-      <c r="F125" s="447" t="s">
+      <c r="F125" s="500" t="s">
         <v>34</v>
       </c>
-      <c r="G125" s="507"/>
-      <c r="H125" s="472"/>
-      <c r="I125" s="476"/>
-      <c r="J125" s="450"/>
-      <c r="K125" s="469" t="s">
-        <v>94</v>
-      </c>
-      <c r="L125" s="477"/>
-      <c r="M125" s="477"/>
-      <c r="N125" s="506"/>
+      <c r="G125" s="490"/>
+      <c r="H125" s="459"/>
+      <c r="I125" s="449"/>
+      <c r="J125" s="448"/>
+      <c r="K125" s="457" t="s">
+        <v>93</v>
+      </c>
+      <c r="L125" s="486"/>
+      <c r="M125" s="486"/>
+      <c r="N125" s="458"/>
       <c r="O125" s="149"/>
       <c r="P125" s="152"/>
-      <c r="Q125" s="469"/>
-      <c r="R125" s="470"/>
+      <c r="Q125" s="457"/>
+      <c r="R125" s="466"/>
       <c r="S125" s="80"/>
       <c r="T125" s="60"/>
       <c r="U125" s="62"/>
       <c r="V125" s="257"/>
     </row>
-    <row r="126" spans="1:23" ht="10.7" customHeight="1" thickBot="1">
+    <row r="126" spans="1:23" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="49" t="s">
         <v>62</v>
       </c>
@@ -7715,18 +7720,18 @@
       <c r="C126" s="395"/>
       <c r="D126" s="395"/>
       <c r="E126" s="395"/>
-      <c r="F126" s="448"/>
+      <c r="F126" s="501"/>
       <c r="G126" s="68"/>
       <c r="H126" s="69"/>
       <c r="I126" s="299"/>
       <c r="J126" s="71"/>
       <c r="K126" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="L126" s="483"/>
-      <c r="M126" s="483"/>
+        <v>96</v>
+      </c>
+      <c r="L126" s="464"/>
+      <c r="M126" s="464"/>
       <c r="N126" s="71" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O126" s="70"/>
       <c r="P126" s="157"/>
@@ -7737,7 +7742,7 @@
       <c r="U126" s="231"/>
       <c r="V126" s="58"/>
     </row>
-    <row r="127" spans="1:23" ht="10.7" customHeight="1" thickTop="1">
+    <row r="127" spans="1:23" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A127" s="49" t="s">
         <v>30</v>
       </c>
@@ -7745,56 +7750,56 @@
       <c r="C127" s="77"/>
       <c r="D127" s="77"/>
       <c r="E127" s="77"/>
-      <c r="F127" s="447" t="s">
+      <c r="F127" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G127" s="507"/>
-      <c r="H127" s="472"/>
-      <c r="I127" s="461"/>
-      <c r="J127" s="450"/>
-      <c r="K127" s="469" t="s">
-        <v>94</v>
-      </c>
-      <c r="L127" s="506"/>
-      <c r="M127" s="453" t="s">
-        <v>99</v>
-      </c>
-      <c r="N127" s="472"/>
+      <c r="G127" s="490"/>
+      <c r="H127" s="459"/>
+      <c r="I127" s="447"/>
+      <c r="J127" s="448"/>
+      <c r="K127" s="457" t="s">
+        <v>93</v>
+      </c>
+      <c r="L127" s="458"/>
+      <c r="M127" s="455" t="s">
+        <v>267</v>
+      </c>
+      <c r="N127" s="459"/>
       <c r="O127" s="149"/>
       <c r="P127" s="150"/>
-      <c r="Q127" s="453" t="s">
+      <c r="Q127" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="R127" s="454"/>
+      <c r="R127" s="456"/>
       <c r="S127" s="80"/>
       <c r="T127" s="60"/>
       <c r="U127" s="62"/>
       <c r="V127" s="257"/>
     </row>
-    <row r="128" spans="1:23" ht="10.7" customHeight="1" thickBot="1">
+    <row r="128" spans="1:23" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B128" s="82"/>
       <c r="C128" s="82"/>
       <c r="D128" s="82"/>
       <c r="E128" s="82"/>
-      <c r="F128" s="448"/>
+      <c r="F128" s="501"/>
       <c r="G128" s="68"/>
       <c r="H128" s="69"/>
       <c r="I128" s="70"/>
       <c r="J128" s="71"/>
       <c r="K128" s="83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L128" s="71" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M128" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N128" s="71" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O128" s="70"/>
       <c r="P128" s="69"/>
@@ -7802,73 +7807,73 @@
         <v>39</v>
       </c>
       <c r="R128" s="86" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="S128" s="396"/>
       <c r="T128" s="75"/>
       <c r="U128" s="231"/>
       <c r="V128" s="58"/>
     </row>
-    <row r="129" spans="1:22" ht="10.7" customHeight="1">
+    <row r="129" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B129" s="77"/>
       <c r="C129" s="77"/>
       <c r="D129" s="77"/>
       <c r="E129" s="77"/>
-      <c r="F129" s="447" t="s">
+      <c r="F129" s="500" t="s">
         <v>51</v>
       </c>
-      <c r="G129" s="461"/>
-      <c r="H129" s="450"/>
-      <c r="I129" s="480" t="s">
-        <v>142</v>
-      </c>
-      <c r="J129" s="467"/>
-      <c r="K129" s="453" t="s">
-        <v>99</v>
-      </c>
-      <c r="L129" s="472"/>
-      <c r="M129" s="469" t="s">
-        <v>94</v>
-      </c>
-      <c r="N129" s="506"/>
+      <c r="G129" s="447"/>
+      <c r="H129" s="448"/>
+      <c r="I129" s="515" t="s">
+        <v>139</v>
+      </c>
+      <c r="J129" s="516"/>
+      <c r="K129" s="455" t="s">
+        <v>267</v>
+      </c>
+      <c r="L129" s="459"/>
+      <c r="M129" s="457" t="s">
+        <v>93</v>
+      </c>
+      <c r="N129" s="458"/>
       <c r="O129" s="185"/>
       <c r="P129" s="150"/>
-      <c r="Q129" s="453" t="s">
+      <c r="Q129" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="R129" s="454"/>
-      <c r="S129" s="484"/>
-      <c r="T129" s="450"/>
+      <c r="R129" s="456"/>
+      <c r="S129" s="454"/>
+      <c r="T129" s="448"/>
       <c r="U129" s="90"/>
       <c r="V129" s="397"/>
     </row>
-    <row r="130" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="130" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49"/>
       <c r="B130" s="82"/>
       <c r="C130" s="82"/>
       <c r="D130" s="82"/>
       <c r="E130" s="82"/>
-      <c r="F130" s="448"/>
+      <c r="F130" s="501"/>
       <c r="G130" s="70"/>
       <c r="H130" s="69"/>
-      <c r="I130" s="511" t="s">
-        <v>224</v>
-      </c>
-      <c r="J130" s="512"/>
+      <c r="I130" s="513" t="s">
+        <v>217</v>
+      </c>
+      <c r="J130" s="514"/>
       <c r="K130" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L130" s="71" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M130" s="83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N130" s="71" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O130" s="98"/>
       <c r="P130" s="69"/>
@@ -7876,92 +7881,92 @@
         <v>39</v>
       </c>
       <c r="R130" s="86" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S130" s="243"/>
       <c r="T130" s="69"/>
       <c r="U130" s="83"/>
       <c r="V130" s="226"/>
     </row>
-    <row r="131" spans="1:22" ht="10.7" customHeight="1">
+    <row r="131" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="49"/>
       <c r="B131" s="77"/>
       <c r="C131" s="77"/>
       <c r="D131" s="77"/>
       <c r="E131" s="77"/>
-      <c r="F131" s="447" t="s">
+      <c r="F131" s="500" t="s">
         <v>57</v>
       </c>
-      <c r="G131" s="449"/>
-      <c r="H131" s="450"/>
+      <c r="G131" s="485"/>
+      <c r="H131" s="448"/>
       <c r="I131" s="442"/>
       <c r="J131" s="398"/>
-      <c r="K131" s="503" t="s">
-        <v>99</v>
-      </c>
-      <c r="L131" s="504"/>
-      <c r="M131" s="504"/>
-      <c r="N131" s="505"/>
+      <c r="K131" s="520" t="s">
+        <v>267</v>
+      </c>
+      <c r="L131" s="521"/>
+      <c r="M131" s="521"/>
+      <c r="N131" s="508"/>
       <c r="O131" s="62"/>
       <c r="P131" s="102"/>
-      <c r="Q131" s="469" t="s">
-        <v>227</v>
-      </c>
-      <c r="R131" s="470"/>
-      <c r="S131" s="484"/>
-      <c r="T131" s="450"/>
+      <c r="Q131" s="457" t="s">
+        <v>220</v>
+      </c>
+      <c r="R131" s="466"/>
+      <c r="S131" s="454"/>
+      <c r="T131" s="448"/>
       <c r="U131" s="399"/>
       <c r="V131" s="266"/>
     </row>
-    <row r="132" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="132" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="122"/>
       <c r="B132" s="244"/>
       <c r="C132" s="244"/>
       <c r="D132" s="244"/>
       <c r="E132" s="244"/>
-      <c r="F132" s="473"/>
+      <c r="F132" s="502"/>
       <c r="G132" s="124"/>
       <c r="H132" s="251"/>
       <c r="I132" s="400" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J132" s="401" t="s">
         <v>53</v>
       </c>
       <c r="K132" s="332" t="s">
-        <v>228</v>
-      </c>
-      <c r="L132" s="502"/>
-      <c r="M132" s="502"/>
+        <v>221</v>
+      </c>
+      <c r="L132" s="484"/>
+      <c r="M132" s="484"/>
       <c r="N132" s="246" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O132" s="355"/>
       <c r="P132" s="246"/>
       <c r="Q132" s="247" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="R132" s="202" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="S132" s="250"/>
       <c r="T132" s="251"/>
       <c r="U132" s="312"/>
       <c r="V132" s="314"/>
     </row>
-    <row r="133" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    <row r="133" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A133" s="133"/>
       <c r="B133" s="134"/>
       <c r="C133" s="134"/>
       <c r="D133" s="134"/>
       <c r="E133" s="134"/>
-      <c r="F133" s="468" t="s">
+      <c r="F133" s="503" t="s">
         <v>24</v>
       </c>
-      <c r="G133" s="499" t="s">
-        <v>147</v>
-      </c>
-      <c r="H133" s="500"/>
+      <c r="G133" s="497" t="s">
+        <v>144</v>
+      </c>
+      <c r="H133" s="505"/>
       <c r="I133" s="165"/>
       <c r="J133" s="371"/>
       <c r="K133" s="392"/>
@@ -7977,7 +7982,7 @@
       <c r="U133" s="62"/>
       <c r="V133" s="154"/>
     </row>
-    <row r="134" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="134" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="208"/>
       <c r="B134" s="50">
         <v>13</v>
@@ -7991,12 +7996,12 @@
       <c r="E134" s="50">
         <v>6</v>
       </c>
-      <c r="F134" s="448"/>
+      <c r="F134" s="501"/>
       <c r="G134" s="107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H134" s="69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I134" s="256"/>
       <c r="J134" s="84"/>
@@ -8013,7 +8018,7 @@
       <c r="U134" s="72"/>
       <c r="V134" s="181"/>
     </row>
-    <row r="135" spans="1:22" ht="10.7" customHeight="1">
+    <row r="135" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="208" t="s">
         <v>23</v>
       </c>
@@ -8021,21 +8026,21 @@
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
       <c r="E135" s="37"/>
-      <c r="F135" s="447" t="s">
+      <c r="F135" s="500" t="s">
         <v>28</v>
       </c>
       <c r="G135" s="403" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H135" s="404" t="s">
-        <v>232</v>
-      </c>
-      <c r="I135" s="461" t="s">
-        <v>233</v>
-      </c>
-      <c r="J135" s="450"/>
-      <c r="K135" s="461"/>
-      <c r="L135" s="450"/>
+        <v>225</v>
+      </c>
+      <c r="I135" s="447" t="s">
+        <v>226</v>
+      </c>
+      <c r="J135" s="448"/>
+      <c r="K135" s="447"/>
+      <c r="L135" s="448"/>
       <c r="M135" s="64"/>
       <c r="N135" s="65"/>
       <c r="O135" s="149"/>
@@ -8044,14 +8049,14 @@
       <c r="R135" s="257"/>
       <c r="S135" s="149"/>
       <c r="T135" s="405"/>
-      <c r="U135" s="490" t="s">
-        <v>234</v>
-      </c>
-      <c r="V135" s="491"/>
-    </row>
-    <row r="136" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U135" s="518" t="s">
+        <v>227</v>
+      </c>
+      <c r="V135" s="519"/>
+    </row>
+    <row r="136" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B136" s="50">
         <v>27</v>
@@ -8065,15 +8070,15 @@
       <c r="E136" s="50">
         <v>20</v>
       </c>
-      <c r="F136" s="448"/>
+      <c r="F136" s="501"/>
       <c r="G136" s="406" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H136" s="407" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I136" s="70" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J136" s="71" t="s">
         <v>54</v>
@@ -8088,12 +8093,12 @@
       <c r="R136" s="100"/>
       <c r="S136" s="70"/>
       <c r="T136" s="71"/>
-      <c r="U136" s="487" t="s">
-        <v>238</v>
-      </c>
-      <c r="V136" s="488"/>
-    </row>
-    <row r="137" spans="1:22" ht="10.7" customHeight="1">
+      <c r="U136" s="522" t="s">
+        <v>231</v>
+      </c>
+      <c r="V136" s="523"/>
+    </row>
+    <row r="137" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="49" t="s">
         <v>66</v>
       </c>
@@ -8101,23 +8106,23 @@
       <c r="C137" s="77"/>
       <c r="D137" s="77"/>
       <c r="E137" s="77"/>
-      <c r="F137" s="447" t="s">
+      <c r="F137" s="500" t="s">
         <v>34</v>
       </c>
       <c r="G137" s="408" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H137" s="409" t="s">
-        <v>240</v>
-      </c>
-      <c r="I137" s="455" t="s">
         <v>233</v>
       </c>
-      <c r="J137" s="456"/>
-      <c r="K137" s="461"/>
-      <c r="L137" s="476"/>
-      <c r="M137" s="476"/>
-      <c r="N137" s="450"/>
+      <c r="I137" s="491" t="s">
+        <v>226</v>
+      </c>
+      <c r="J137" s="492"/>
+      <c r="K137" s="447"/>
+      <c r="L137" s="449"/>
+      <c r="M137" s="449"/>
+      <c r="N137" s="448"/>
       <c r="O137" s="149"/>
       <c r="P137" s="405"/>
       <c r="Q137" s="281"/>
@@ -8127,7 +8132,7 @@
       <c r="U137" s="120"/>
       <c r="V137" s="121"/>
     </row>
-    <row r="138" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="138" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49" t="s">
         <v>27</v>
       </c>
@@ -8135,20 +8140,20 @@
       <c r="C138" s="50"/>
       <c r="D138" s="50"/>
       <c r="E138" s="50"/>
-      <c r="F138" s="448"/>
+      <c r="F138" s="501"/>
       <c r="G138" s="107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H138" s="410" t="s">
-        <v>148</v>
-      </c>
-      <c r="I138" s="508" t="s">
-        <v>241</v>
-      </c>
-      <c r="J138" s="509"/>
+        <v>145</v>
+      </c>
+      <c r="I138" s="488" t="s">
+        <v>234</v>
+      </c>
+      <c r="J138" s="489"/>
       <c r="K138" s="57"/>
-      <c r="L138" s="501"/>
-      <c r="M138" s="501"/>
+      <c r="L138" s="465"/>
+      <c r="M138" s="465"/>
       <c r="N138" s="71"/>
       <c r="O138" s="70"/>
       <c r="P138" s="71"/>
@@ -8157,13 +8162,13 @@
       <c r="S138" s="70"/>
       <c r="T138" s="71"/>
       <c r="U138" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V138" s="411" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" ht="10.7" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="49" t="s">
         <v>52</v>
       </c>
@@ -8171,63 +8176,63 @@
       <c r="C139" s="77"/>
       <c r="D139" s="77"/>
       <c r="E139" s="77"/>
-      <c r="F139" s="447" t="s">
+      <c r="F139" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G139" s="449" t="s">
-        <v>154</v>
-      </c>
-      <c r="H139" s="450"/>
+      <c r="G139" s="485" t="s">
+        <v>151</v>
+      </c>
+      <c r="H139" s="448"/>
       <c r="I139" s="443"/>
       <c r="J139" s="412"/>
-      <c r="K139" s="461" t="s">
+      <c r="K139" s="447" t="s">
         <v>29</v>
       </c>
-      <c r="L139" s="476"/>
-      <c r="M139" s="476"/>
-      <c r="N139" s="450"/>
+      <c r="L139" s="449"/>
+      <c r="M139" s="449"/>
+      <c r="N139" s="448"/>
       <c r="O139" s="281"/>
       <c r="P139" s="166"/>
       <c r="Q139" s="46"/>
       <c r="R139" s="266"/>
       <c r="S139" s="165"/>
       <c r="T139" s="166"/>
-      <c r="U139" s="461" t="s">
-        <v>242</v>
-      </c>
-      <c r="V139" s="478"/>
-    </row>
-    <row r="140" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U139" s="447" t="s">
+        <v>235</v>
+      </c>
+      <c r="V139" s="467"/>
+    </row>
+    <row r="140" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B140" s="82"/>
       <c r="C140" s="82"/>
       <c r="D140" s="82"/>
       <c r="E140" s="82"/>
-      <c r="F140" s="448"/>
+      <c r="F140" s="501"/>
       <c r="G140" s="68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H140" s="69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I140" s="108" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J140" s="413" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K140" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="L140" s="501"/>
-      <c r="M140" s="501"/>
+        <v>115</v>
+      </c>
+      <c r="L140" s="465"/>
+      <c r="M140" s="465"/>
       <c r="N140" s="71" t="s">
         <v>54</v>
       </c>
       <c r="O140" s="179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P140" s="144"/>
       <c r="Q140" s="179"/>
@@ -8235,55 +8240,55 @@
       <c r="S140" s="85"/>
       <c r="T140" s="144"/>
       <c r="U140" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V140" s="100" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" ht="10.7" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B141" s="77"/>
       <c r="C141" s="77"/>
       <c r="D141" s="77"/>
       <c r="E141" s="77"/>
-      <c r="F141" s="447" t="s">
+      <c r="F141" s="500" t="s">
         <v>51</v>
       </c>
       <c r="G141" s="414"/>
       <c r="H141" s="415"/>
       <c r="I141" s="291"/>
       <c r="J141" s="299"/>
-      <c r="K141" s="461" t="s">
-        <v>128</v>
-      </c>
-      <c r="L141" s="476"/>
-      <c r="M141" s="476"/>
-      <c r="N141" s="450"/>
+      <c r="K141" s="447" t="s">
+        <v>263</v>
+      </c>
+      <c r="L141" s="449"/>
+      <c r="M141" s="449"/>
+      <c r="N141" s="448"/>
       <c r="O141" s="367" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P141" s="416" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q141" s="105"/>
       <c r="R141" s="106"/>
       <c r="S141" s="165"/>
       <c r="T141" s="166"/>
-      <c r="U141" s="490" t="s">
-        <v>247</v>
-      </c>
-      <c r="V141" s="491"/>
-    </row>
-    <row r="142" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="U141" s="518" t="s">
+        <v>240</v>
+      </c>
+      <c r="V141" s="519"/>
+    </row>
+    <row r="142" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
       <c r="B142" s="82"/>
       <c r="C142" s="82"/>
       <c r="D142" s="82"/>
       <c r="E142" s="82"/>
-      <c r="F142" s="448"/>
+      <c r="F142" s="501"/>
       <c r="G142" s="51"/>
       <c r="H142" s="69"/>
       <c r="I142" s="70"/>
@@ -8291,33 +8296,33 @@
       <c r="K142" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="L142" s="501"/>
-      <c r="M142" s="501"/>
+      <c r="L142" s="465"/>
+      <c r="M142" s="465"/>
       <c r="N142" s="71" t="s">
         <v>54</v>
       </c>
       <c r="O142" s="417" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P142" s="418" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q142" s="111"/>
       <c r="R142" s="112"/>
       <c r="S142" s="85"/>
       <c r="T142" s="144"/>
-      <c r="U142" s="482" t="s">
-        <v>240</v>
-      </c>
-      <c r="V142" s="489"/>
-    </row>
-    <row r="143" spans="1:22" ht="10.7" customHeight="1">
+      <c r="U142" s="524" t="s">
+        <v>233</v>
+      </c>
+      <c r="V142" s="525"/>
+    </row>
+    <row r="143" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="49"/>
       <c r="B143" s="77"/>
       <c r="C143" s="77"/>
       <c r="D143" s="77"/>
       <c r="E143" s="77"/>
-      <c r="F143" s="447" t="s">
+      <c r="F143" s="500" t="s">
         <v>57</v>
       </c>
       <c r="G143" s="414"/>
@@ -8329,10 +8334,10 @@
       <c r="M143" s="46"/>
       <c r="N143" s="66"/>
       <c r="O143" s="372" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P143" s="120" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q143" s="120"/>
       <c r="R143" s="121"/>
@@ -8341,13 +8346,13 @@
       <c r="U143" s="120"/>
       <c r="V143" s="121"/>
     </row>
-    <row r="144" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="144" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="122"/>
       <c r="B144" s="244"/>
       <c r="C144" s="244"/>
       <c r="D144" s="244"/>
       <c r="E144" s="244"/>
-      <c r="F144" s="473"/>
+      <c r="F144" s="502"/>
       <c r="G144" s="420"/>
       <c r="H144" s="251"/>
       <c r="I144" s="70"/>
@@ -8357,29 +8362,29 @@
       <c r="M144" s="196"/>
       <c r="N144" s="200"/>
       <c r="O144" s="421" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P144" s="131" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q144" s="131"/>
       <c r="R144" s="132"/>
       <c r="S144" s="248"/>
       <c r="T144" s="251"/>
       <c r="U144" s="422" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V144" s="423" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A145" s="133"/>
       <c r="B145" s="134"/>
       <c r="C145" s="134"/>
       <c r="D145" s="134"/>
       <c r="E145" s="134"/>
-      <c r="F145" s="468" t="s">
+      <c r="F145" s="503" t="s">
         <v>24</v>
       </c>
       <c r="G145" s="233"/>
@@ -8394,14 +8399,14 @@
       <c r="P145" s="334"/>
       <c r="Q145" s="44"/>
       <c r="R145" s="336"/>
-      <c r="S145" s="510" t="s">
-        <v>252</v>
-      </c>
-      <c r="T145" s="475"/>
-      <c r="U145" s="494"/>
-      <c r="V145" s="495"/>
-    </row>
-    <row r="146" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="S145" s="512" t="s">
+        <v>245</v>
+      </c>
+      <c r="T145" s="463"/>
+      <c r="U145" s="460"/>
+      <c r="V145" s="461"/>
+    </row>
+    <row r="146" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="208"/>
       <c r="B146" s="50">
         <v>14</v>
@@ -8415,7 +8420,7 @@
       <c r="E146" s="50">
         <v>7</v>
       </c>
-      <c r="F146" s="448"/>
+      <c r="F146" s="501"/>
       <c r="G146" s="51"/>
       <c r="H146" s="52"/>
       <c r="I146" s="108"/>
@@ -8429,23 +8434,23 @@
       <c r="Q146" s="55"/>
       <c r="R146" s="56"/>
       <c r="S146" s="263" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="T146" s="69" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="U146" s="55"/>
       <c r="V146" s="56"/>
     </row>
-    <row r="147" spans="1:22" ht="10.7" customHeight="1">
+    <row r="147" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="208" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
       <c r="E147" s="37"/>
-      <c r="F147" s="447" t="s">
+      <c r="F147" s="500" t="s">
         <v>28</v>
       </c>
       <c r="G147" s="89"/>
@@ -8459,19 +8464,19 @@
       <c r="O147" s="62"/>
       <c r="P147" s="150"/>
       <c r="Q147" s="62" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R147" s="242"/>
-      <c r="S147" s="484" t="s">
-        <v>256</v>
-      </c>
-      <c r="T147" s="476"/>
-      <c r="U147" s="476"/>
-      <c r="V147" s="478"/>
-    </row>
-    <row r="148" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="S147" s="454" t="s">
+        <v>249</v>
+      </c>
+      <c r="T147" s="449"/>
+      <c r="U147" s="449"/>
+      <c r="V147" s="467"/>
+    </row>
+    <row r="148" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B148" s="50">
         <v>28</v>
@@ -8485,7 +8490,7 @@
       <c r="E148" s="50">
         <v>21</v>
       </c>
-      <c r="F148" s="448"/>
+      <c r="F148" s="501"/>
       <c r="G148" s="68"/>
       <c r="H148" s="69"/>
       <c r="I148" s="231"/>
@@ -8496,30 +8501,32 @@
       <c r="N148" s="76"/>
       <c r="O148" s="127"/>
       <c r="P148" s="96"/>
-      <c r="Q148" s="55"/>
+      <c r="Q148" s="55" t="s">
+        <v>269</v>
+      </c>
       <c r="R148" s="56" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S148" s="263" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="T148" s="171"/>
       <c r="U148" s="253" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="V148" s="325" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22" ht="10.7" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B149" s="428"/>
       <c r="C149" s="428"/>
       <c r="D149" s="428"/>
       <c r="E149" s="428"/>
-      <c r="F149" s="447" t="s">
+      <c r="F149" s="500" t="s">
         <v>34</v>
       </c>
       <c r="G149" s="113"/>
@@ -8533,25 +8540,25 @@
       <c r="O149" s="62"/>
       <c r="P149" s="258"/>
       <c r="Q149" s="62" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R149" s="242"/>
-      <c r="S149" s="471" t="s">
-        <v>256</v>
-      </c>
-      <c r="T149" s="498"/>
-      <c r="U149" s="498"/>
-      <c r="V149" s="454"/>
-    </row>
-    <row r="150" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+      <c r="S149" s="517" t="s">
+        <v>249</v>
+      </c>
+      <c r="T149" s="506"/>
+      <c r="U149" s="506"/>
+      <c r="V149" s="456"/>
+    </row>
+    <row r="150" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B150" s="297"/>
       <c r="C150" s="297"/>
       <c r="D150" s="297"/>
       <c r="E150" s="297"/>
-      <c r="F150" s="448"/>
+      <c r="F150" s="501"/>
       <c r="G150" s="107"/>
       <c r="H150" s="69"/>
       <c r="I150" s="72"/>
@@ -8562,20 +8569,22 @@
       <c r="N150" s="84"/>
       <c r="O150" s="72"/>
       <c r="P150" s="69"/>
-      <c r="Q150" s="55"/>
+      <c r="Q150" s="55" t="s">
+        <v>269</v>
+      </c>
       <c r="R150" s="56" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S150" s="189"/>
       <c r="T150" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U150" s="55" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="V150" s="56"/>
     </row>
-    <row r="151" spans="1:22" ht="10.7" customHeight="1">
+    <row r="151" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="49" t="s">
         <v>26</v>
       </c>
@@ -8583,7 +8592,7 @@
       <c r="C151" s="429"/>
       <c r="D151" s="429"/>
       <c r="E151" s="429"/>
-      <c r="F151" s="447" t="s">
+      <c r="F151" s="500" t="s">
         <v>42</v>
       </c>
       <c r="G151" s="89"/>
@@ -8600,11 +8609,11 @@
       <c r="R151" s="154"/>
       <c r="S151" s="430"/>
       <c r="T151" s="353" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V151" s="56"/>
     </row>
-    <row r="152" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="152" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49" t="s">
         <v>66</v>
       </c>
@@ -8612,7 +8621,7 @@
       <c r="C152" s="304"/>
       <c r="D152" s="304"/>
       <c r="E152" s="304"/>
-      <c r="F152" s="448"/>
+      <c r="F152" s="501"/>
       <c r="G152" s="107"/>
       <c r="H152" s="69"/>
       <c r="I152" s="70"/>
@@ -8626,21 +8635,21 @@
       <c r="Q152" s="74"/>
       <c r="R152" s="344"/>
       <c r="S152" s="263" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="T152" s="171"/>
       <c r="U152" s="171"/>
       <c r="V152" s="181"/>
     </row>
-    <row r="153" spans="1:22" ht="10.7" customHeight="1">
+    <row r="153" spans="1:22" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B153" s="428"/>
       <c r="C153" s="428"/>
       <c r="D153" s="428"/>
       <c r="E153" s="428"/>
-      <c r="F153" s="447" t="s">
+      <c r="F153" s="500" t="s">
         <v>51</v>
       </c>
       <c r="G153" s="113"/>
@@ -8655,18 +8664,18 @@
       <c r="P153" s="258"/>
       <c r="Q153" s="55"/>
       <c r="R153" s="431"/>
-      <c r="S153" s="484"/>
-      <c r="T153" s="476"/>
+      <c r="S153" s="454"/>
+      <c r="T153" s="449"/>
       <c r="U153" s="55"/>
       <c r="V153" s="262"/>
     </row>
-    <row r="154" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="154" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="432"/>
       <c r="C154" s="432"/>
       <c r="D154" s="432"/>
       <c r="E154" s="432"/>
-      <c r="F154" s="448"/>
+      <c r="F154" s="501"/>
       <c r="G154" s="107"/>
       <c r="H154" s="69"/>
       <c r="I154" s="70"/>
@@ -8684,13 +8693,13 @@
       <c r="U154" s="171"/>
       <c r="V154" s="100"/>
     </row>
-    <row r="155" spans="1:22" ht="10.7" customHeight="1" thickTop="1">
+    <row r="155" spans="1:22" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A155" s="49"/>
       <c r="B155" s="428"/>
       <c r="C155" s="428"/>
       <c r="D155" s="428"/>
       <c r="E155" s="428"/>
-      <c r="F155" s="447" t="s">
+      <c r="F155" s="500" t="s">
         <v>57</v>
       </c>
       <c r="G155" s="89"/>
@@ -8710,13 +8719,13 @@
       <c r="U155" s="46"/>
       <c r="V155" s="431"/>
     </row>
-    <row r="156" spans="1:22" ht="10.7" customHeight="1" thickBot="1">
+    <row r="156" spans="1:22" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="122"/>
       <c r="B156" s="432"/>
       <c r="C156" s="432"/>
       <c r="D156" s="432"/>
       <c r="E156" s="432"/>
-      <c r="F156" s="473"/>
+      <c r="F156" s="502"/>
       <c r="G156" s="433"/>
       <c r="H156" s="246"/>
       <c r="I156" s="434"/>
@@ -8734,7 +8743,7 @@
       <c r="U156" s="201"/>
       <c r="V156" s="129"/>
     </row>
-    <row r="157" spans="1:22" ht="15.75" customHeight="1" thickTop="1">
+    <row r="157" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8743,14 +8752,14 @@
       <c r="F157" s="2"/>
       <c r="K157" s="436"/>
       <c r="M157" s="436" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q157" s="8"/>
       <c r="R157" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" ht="15.75" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8761,14 +8770,14 @@
       <c r="J158" s="10"/>
       <c r="K158" s="8"/>
       <c r="M158" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q158" s="8"/>
       <c r="R158" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" ht="15.75" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8786,7 +8795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="15.75" customHeight="1">
+    <row r="160" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8797,7 +8806,7 @@
       <c r="J160" s="10"/>
       <c r="K160" s="8"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1">
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8806,7 +8815,7 @@
       <c r="F161" s="3"/>
       <c r="J161" s="437"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8815,7 +8824,7 @@
       <c r="F162" s="3"/>
       <c r="J162" s="437"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8824,7 +8833,7 @@
       <c r="F163" s="3"/>
       <c r="J163" s="437"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8833,7 +8842,7 @@
       <c r="F164" s="3"/>
       <c r="J164" s="10"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1">
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8843,7 +8852,7 @@
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
     </row>
-    <row r="166" spans="1:10" ht="10.7" customHeight="1">
+    <row r="166" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8851,7 +8860,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:10" ht="10.7" customHeight="1">
+    <row r="167" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8859,7 +8868,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:10" ht="10.7" customHeight="1">
+    <row r="168" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8867,7 +8876,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:10" ht="10.7" customHeight="1">
+    <row r="169" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8875,7 +8884,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:10" ht="10.7" customHeight="1">
+    <row r="170" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8883,7 +8892,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:10" ht="10.7" customHeight="1">
+    <row r="171" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8891,7 +8900,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:10" ht="10.7" customHeight="1">
+    <row r="172" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8899,7 +8908,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:10" ht="10.7" customHeight="1">
+    <row r="173" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8907,7 +8916,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:10" ht="10.7" customHeight="1">
+    <row r="174" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -8915,7 +8924,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:10" ht="10.7" customHeight="1">
+    <row r="175" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -8923,7 +8932,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:10" ht="10.7" customHeight="1">
+    <row r="176" spans="1:10" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -8931,7 +8940,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" ht="10.7" customHeight="1">
+    <row r="177" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -8939,7 +8948,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" ht="15.75">
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -8947,7 +8956,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6" ht="15.75">
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -8955,7 +8964,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" ht="15.75">
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -8963,7 +8972,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" ht="15.75">
+    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -8971,7 +8980,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6" ht="15.75">
+    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -8979,7 +8988,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" ht="15.75">
+    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8987,7 +8996,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" ht="15.75">
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8995,7 +9004,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" ht="15.75">
+    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9003,7 +9012,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" ht="15.75">
+    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9011,7 +9020,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="15.75">
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9019,7 +9028,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" ht="15.75">
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9027,7 +9036,7 @@
       <c r="E188" s="2"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75">
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9035,7 +9044,7 @@
       <c r="E189" s="2"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75">
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9043,7 +9052,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75">
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9051,7 +9060,7 @@
       <c r="E191" s="2"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" ht="15.75">
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9059,7 +9068,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6" ht="15.75">
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9067,7 +9076,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6" ht="15.75">
+    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9075,7 +9084,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6" ht="15.75">
+    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9083,7 +9092,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" ht="15.75">
+    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -9091,7 +9100,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" ht="15.75">
+    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -9099,7 +9108,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6" ht="15.75">
+    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -9107,7 +9116,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6" ht="15.75">
+    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -9115,7 +9124,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" ht="15.75">
+    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -9123,7 +9132,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6" ht="15.75">
+    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -9131,7 +9140,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" ht="15.75">
+    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -9139,7 +9148,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" ht="15.75">
+    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -9149,247 +9158,7 @@
     </row>
   </sheetData>
   <mergeCells count="269">
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="S129:T129"/>
-    <mergeCell ref="Q119:R119"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="L142:M142"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="S117:T117"/>
-    <mergeCell ref="S119:T119"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="Q113:R113"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="U95:V95"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="U105:V105"/>
-    <mergeCell ref="S107:V107"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="U74:V74"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="Q123:R123"/>
-    <mergeCell ref="Q125:R125"/>
-    <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="U121:V121"/>
-    <mergeCell ref="U114:V114"/>
-    <mergeCell ref="S115:T115"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="K137:N137"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="S145:T145"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="K139:N139"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="K125:N125"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="S149:V149"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="K141:N141"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="S147:V147"/>
-    <mergeCell ref="U139:V139"/>
-    <mergeCell ref="U141:V141"/>
-    <mergeCell ref="U145:V145"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="L132:M132"/>
-    <mergeCell ref="K131:N131"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="U142:V142"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="Q46:R46"/>
     <mergeCell ref="F12:F13"/>
@@ -9414,10 +9183,250 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="K125:N125"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="K141:N141"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="K137:N137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="S145:T145"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="K139:N139"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="S149:V149"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="S147:V147"/>
+    <mergeCell ref="U139:V139"/>
+    <mergeCell ref="U141:V141"/>
+    <mergeCell ref="U145:V145"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="K131:N131"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="U142:V142"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="U121:V121"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="S115:T115"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="U105:V105"/>
+    <mergeCell ref="S107:V107"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="U74:V74"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="S117:T117"/>
+    <mergeCell ref="S119:T119"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="Q113:R113"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="Q125:R125"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="S129:T129"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="I125:J125"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
